--- a/docs/鍵盤設計規格_河洛方音.xlsx
+++ b/docs/鍵盤設計規格_河洛方音.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D544A8-EFF4-4C3A-AE65-58B3D9FC7DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E5DF6D-C87D-4416-BD49-76C94B719F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{379EB0F0-B0BB-4AD0-A067-A77233E6AABD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{379EB0F0-B0BB-4AD0-A067-A77233E6AABD}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤圖" sheetId="4" r:id="rId1"/>
@@ -19,27 +19,27 @@
     <sheet name="聲韻母" sheetId="2" r:id="rId3"/>
     <sheet name="RIME編碼" sheetId="7" r:id="rId4"/>
     <sheet name="RIME編碼 (2)" sheetId="10" r:id="rId5"/>
-    <sheet name="RIME編碼 (原設計)" sheetId="9" r:id="rId6"/>
+    <sheet name="RIME對映編碼" sheetId="9" r:id="rId6"/>
     <sheet name="說明" sheetId="5" r:id="rId7"/>
     <sheet name="原方音鍵盤圖" sheetId="6" r:id="rId8"/>
     <sheet name="工作表3" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="方音符號" localSheetId="5">RIME對映編碼!$X$3:$X$47</definedName>
     <definedName name="方音符號" localSheetId="4">'RIME編碼 (2)'!$X$3:$X$47</definedName>
-    <definedName name="方音符號" localSheetId="5">'RIME編碼 (原設計)'!$X$3:$X$47</definedName>
     <definedName name="方音符號">RIME編碼!$AA$3:$AA$45</definedName>
     <definedName name="字典編碼">RIME編碼!$AB$3:$AB$45</definedName>
+    <definedName name="拼音字母" localSheetId="5">RIME對映編碼!$Y$3:$Y$47</definedName>
     <definedName name="拼音字母" localSheetId="4">'RIME編碼 (2)'!$Y$3:$Y$47</definedName>
-    <definedName name="拼音字母" localSheetId="5">'RIME編碼 (原設計)'!$Y$3:$Y$47</definedName>
     <definedName name="拼音字母">RIME編碼!$AC$3:$AC$45</definedName>
+    <definedName name="按鍵編碼" localSheetId="5">RIME對映編碼!$Z$3:$Z$47</definedName>
     <definedName name="按鍵編碼" localSheetId="4">'RIME編碼 (2)'!$Z$3:$Z$47</definedName>
-    <definedName name="按鍵編碼" localSheetId="5">'RIME編碼 (原設計)'!$Z$3:$Z$47</definedName>
     <definedName name="按鍵編碼">RIME編碼!$AD$3:$AD$45</definedName>
+    <definedName name="國際音標" localSheetId="5">RIME對映編碼!$AA$3:$AA$47</definedName>
     <definedName name="國際音標" localSheetId="4">'RIME編碼 (2)'!$AA$3:$AA$47</definedName>
-    <definedName name="國際音標" localSheetId="5">'RIME編碼 (原設計)'!$AA$3:$AA$47</definedName>
     <definedName name="國際音標">RIME編碼!$AE$3:$AE$45</definedName>
+    <definedName name="鍵盤位置" localSheetId="5">RIME對映編碼!$W$3:$W$47</definedName>
     <definedName name="鍵盤位置" localSheetId="4">'RIME編碼 (2)'!$W$3:$W$47</definedName>
-    <definedName name="鍵盤位置" localSheetId="5">'RIME編碼 (原設計)'!$W$3:$W$47</definedName>
     <definedName name="鍵盤位置">RIME編碼!$W$3:$W$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -343,6 +343,7 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>p</t>
     </r>
@@ -350,6 +351,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">          LNP</t>
     </r>
@@ -851,6 +853,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -872,6 +875,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -893,6 +897,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -922,6 +927,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -943,6 +949,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -964,6 +971,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ɔŋ</t>
     </r>
@@ -985,6 +993,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -1006,6 +1015,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -1288,6 +1298,8 @@
         <sz val="18"/>
         <color theme="9"/>
         <rFont val="LXGW WenKai Mono TC"/>
+        <family val="3"/>
+        <charset val="136"/>
       </rPr>
       <t>˪</t>
     </r>
@@ -1296,6 +1308,8 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="LXGW WenKai Mono TC"/>
+        <family val="3"/>
+        <charset val="136"/>
       </rPr>
       <t>(陰去)</t>
     </r>
@@ -1307,6 +1321,8 @@
         <sz val="18"/>
         <color theme="9"/>
         <rFont val="LXGW WenKai Mono TC"/>
+        <family val="3"/>
+        <charset val="136"/>
       </rPr>
       <t>ˋ</t>
     </r>
@@ -1315,6 +1331,8 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="LXGW WenKai Mono TC"/>
+        <family val="3"/>
+        <charset val="136"/>
       </rPr>
       <t>(陰上)</t>
     </r>
@@ -1326,6 +1344,8 @@
         <sz val="18"/>
         <color theme="9"/>
         <rFont val="LXGW WenKai Mono TC"/>
+        <family val="3"/>
+        <charset val="136"/>
       </rPr>
       <t>˫</t>
     </r>
@@ -1334,6 +1354,8 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="LXGW WenKai Mono TC"/>
+        <family val="3"/>
+        <charset val="136"/>
       </rPr>
       <t>(陽去)</t>
     </r>
@@ -1345,6 +1367,8 @@
         <sz val="18"/>
         <color theme="9"/>
         <rFont val="LXGW WenKai Mono TC"/>
+        <family val="3"/>
+        <charset val="136"/>
       </rPr>
       <t>ˊ</t>
     </r>
@@ -1353,6 +1377,8 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="LXGW WenKai Mono TC"/>
+        <family val="3"/>
+        <charset val="136"/>
       </rPr>
       <t>(陽平)</t>
     </r>
@@ -1367,6 +1393,8 @@
         <sz val="18"/>
         <color theme="9"/>
         <rFont val="LXGW WenKai Mono TC"/>
+        <family val="3"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> ̇</t>
     </r>
@@ -1375,6 +1403,8 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="LXGW WenKai Mono TC"/>
+        <family val="3"/>
+        <charset val="136"/>
       </rPr>
       <t>(入声)</t>
     </r>
@@ -1973,6 +2003,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄉㄊㄌㄍㄎ</t>
     </r>
@@ -1989,6 +2020,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄗㄘ</t>
     </r>
@@ -2005,6 +2037,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄙㄏㄧㄨㄚ</t>
     </r>
@@ -2021,6 +2054,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄜ</t>
     </r>
@@ -2037,6 +2071,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄞㄠ</t>
     </r>
@@ -2053,6 +2088,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄣ</t>
     </r>
@@ -2092,6 +2128,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒ</t>
     </r>
@@ -2108,6 +2145,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄫ</t>
     </r>
@@ -2124,6 +2162,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄗㄘㄙㄧㄨ</t>
     </r>
@@ -2140,6 +2179,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄚ</t>
     </r>
@@ -2156,6 +2196,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄜ</t>
     </r>
@@ -2172,6 +2213,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄞ</t>
     </r>
@@ -2188,6 +2230,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄠ</t>
     </r>
@@ -2204,6 +2247,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄢㄣㄤ</t>
     </r>
@@ -3608,7 +3652,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="99">
+  <fonts count="100">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -3617,6 +3661,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3627,6 +3672,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -3638,24 +3684,32 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="20"/>
       <name val="LXGW WenKai Mono TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="LXGW WenKai Mono TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF0000FF"/>
       <name val="LXGW WenKai Mono TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -3671,6 +3725,7 @@
     <font>
       <sz val="16"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="16"/>
@@ -3702,27 +3757,36 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="9"/>
       <name val="LXGW WenKai Mono TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="9"/>
       <name val="LXGW WenKai Mono TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="LXGW WenKai Mono TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF0070C0"/>
       <name val="LXGW WenKai Mono TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3760,6 +3824,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3778,6 +3843,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -3798,6 +3864,7 @@
       <b/>
       <sz val="12"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3817,6 +3884,7 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3842,6 +3910,7 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4003,6 +4072,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="22"/>
@@ -4206,6 +4276,12 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Serif TC Medium"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="17">
@@ -4486,7 +4562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4767,175 +4843,40 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4950,16 +4891,16 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4968,22 +4909,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5007,11 +4945,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5104,6 +5039,130 @@
     <xf numFmtId="0" fontId="97" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5111,253 +5170,6 @@
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <name val="Noto Sans TC"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <name val="Noto Sans TC"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Noto Sans TC"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Noto Sans TC"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <name val="Noto Sans TC"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <name val="Noto Sans TC"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <name val="Noto Sans TC"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5609,6 +5421,253 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Noto Sans TC"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <name val="Noto Sans TC"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <name val="Noto Sans TC"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Noto Sans TC"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Noto Sans TC"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Noto Sans TC"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Noto Sans TC"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -6194,49 +6253,49 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}" name="表格1" displayName="表格1" ref="W2:AE45" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="W2:AE45" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6A9AF4DA-E036-41DD-A622-9900AA5AAB44}" name="鍵盤位置" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{D13D47A8-BCA3-4440-A2F8-E79F754B2B5D}" name="speller" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{343FD8C4-028A-45C1-BD67-2CE1CEA5443F}" name="comment" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{DA6466A6-BE79-4517-B533-AD40EDC2F2F0}" name="preedit" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{52BC818C-85CB-4686-8C11-E3739AE20FEB}" name="方音符號" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{B6753569-9ADB-423F-ABDF-704DDE539FD4}" name="字典編碼" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F3915908-EBF1-4B6A-94B0-BD9E336F6D39}" name="拼音字母" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DCF08462-CC6E-4595-AAB5-40B87A56B33E}" name="按鍵編碼" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{359A5F62-13ED-4302-87CE-9BC226A730E6}" name="國際音標" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{6A9AF4DA-E036-41DD-A622-9900AA5AAB44}" name="鍵盤位置" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{D13D47A8-BCA3-4440-A2F8-E79F754B2B5D}" name="speller" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{343FD8C4-028A-45C1-BD67-2CE1CEA5443F}" name="comment" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{DA6466A6-BE79-4517-B533-AD40EDC2F2F0}" name="preedit" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{52BC818C-85CB-4686-8C11-E3739AE20FEB}" name="方音符號" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{B6753569-9ADB-423F-ABDF-704DDE539FD4}" name="字典編碼" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{F3915908-EBF1-4B6A-94B0-BD9E336F6D39}" name="拼音字母" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{DCF08462-CC6E-4595-AAB5-40B87A56B33E}" name="按鍵編碼" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{359A5F62-13ED-4302-87CE-9BC226A730E6}" name="國際音標" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B5AE033-6506-4AB4-82CE-2BA5431B5C61}" name="表格1_4" displayName="表格1_4" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B5AE033-6506-4AB4-82CE-2BA5431B5C61}" name="表格1_4" displayName="表格1_4" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="W2:AA47" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W3:AA47">
     <sortCondition ref="W3:W47" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{33E769A3-3EE3-4A38-8D66-742982D2224A}" name="鍵盤位置" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{1556D26D-47E9-4617-9B65-52F95372525B}" name="方音符號" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{C502A491-058C-4A0B-A268-618FFED03335}" name="拼音字母" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{EA552043-6040-4654-9966-F8B45A23B7DA}" name="按鍵編碼" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{3139DE0E-444D-4BE1-8508-0ACF2146810B}" name="國際音標" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{33E769A3-3EE3-4A38-8D66-742982D2224A}" name="鍵盤位置" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{1556D26D-47E9-4617-9B65-52F95372525B}" name="方音符號" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C502A491-058C-4A0B-A268-618FFED03335}" name="拼音字母" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{EA552043-6040-4654-9966-F8B45A23B7DA}" name="按鍵編碼" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{3139DE0E-444D-4BE1-8508-0ACF2146810B}" name="國際音標" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2EB4631B-B4AE-4979-BC72-556E4D673136}" name="表格1_3" displayName="表格1_3" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2EB4631B-B4AE-4979-BC72-556E4D673136}" name="表格1_3" displayName="表格1_3" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="W2:AA47" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W3:AA47">
     <sortCondition ref="W3:W47" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{89660A92-E968-438D-873E-7A0C59F3CFF5}" name="鍵盤位置" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{F5EC9727-118B-45AF-A15C-893D693FEB83}" name="方音符號" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{7236D3C9-B91E-43CE-BE19-C8B360ACAC0A}" name="拼音字母" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{C33329BD-E463-4118-8D9E-12C79C04BC24}" name="按鍵編碼" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{90953D44-203E-481B-9F2E-4637C0AC4726}" name="國際音標" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{89660A92-E968-438D-873E-7A0C59F3CFF5}" name="鍵盤位置" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F5EC9727-118B-45AF-A15C-893D693FEB83}" name="方音符號" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7236D3C9-B91E-43CE-BE19-C8B360ACAC0A}" name="拼音字母" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{C33329BD-E463-4118-8D9E-12C79C04BC24}" name="按鍵編碼" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{90953D44-203E-481B-9F2E-4637C0AC4726}" name="國際音標" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6550,61 +6609,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="106">
+      <c r="C2" s="202">
         <v>1</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="106">
+      <c r="D2" s="203"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="202">
         <v>2</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="133">
+      <c r="G2" s="203"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="189">
         <v>3</v>
       </c>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="133">
+      <c r="J2" s="190"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="189">
         <v>4</v>
       </c>
-      <c r="M2" s="134"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="133">
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="189">
         <v>5</v>
       </c>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="133">
+      <c r="P2" s="190"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="189">
         <v>6</v>
       </c>
-      <c r="S2" s="134"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="133">
+      <c r="S2" s="190"/>
+      <c r="T2" s="191"/>
+      <c r="U2" s="189">
         <v>7</v>
       </c>
-      <c r="V2" s="134"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="109">
+      <c r="V2" s="190"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="180">
         <v>8</v>
       </c>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="109">
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="180">
         <v>9</v>
       </c>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="109">
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="176"/>
+      <c r="AD2" s="180">
         <v>0</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="140" t="s">
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="174" t="s">
         <v>371</v>
       </c>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="111"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -6613,56 +6672,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="115" t="str">
+      <c r="C3" s="192" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="115" t="str">
+      <c r="D3" s="193"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="192" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="136" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="195" t="s">
         <v>289</v>
       </c>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="130" t="s">
+      <c r="J3" s="196"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="198" t="s">
         <v>290</v>
       </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="137" t="s">
+      <c r="M3" s="196"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="199" t="s">
         <v>702</v>
       </c>
-      <c r="S3" s="138"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="130" t="s">
+      <c r="S3" s="200"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="198" t="s">
         <v>699</v>
       </c>
-      <c r="V3" s="131"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="127" t="str">
+      <c r="V3" s="196"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="181" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="141"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="143"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AQ3" s="89" t="s">
         <v>690</v>
       </c>
@@ -6671,115 +6730,115 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="106" t="s">
+      <c r="E4" s="203"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="106" t="s">
+      <c r="H4" s="203"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="107"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="106" t="s">
+      <c r="K4" s="203"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="106" t="s">
+      <c r="N4" s="203"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="106" t="s">
+      <c r="Q4" s="203"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="202" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="107"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="109" t="s">
+      <c r="T4" s="203"/>
+      <c r="U4" s="204"/>
+      <c r="V4" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="W4" s="110"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="109" t="s">
+      <c r="W4" s="175"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="111"/>
-      <c r="AB4" s="109" t="s">
+      <c r="Z4" s="175"/>
+      <c r="AA4" s="176"/>
+      <c r="AB4" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="111"/>
-      <c r="AE4" s="109" t="s">
+      <c r="AC4" s="175"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="111"/>
+      <c r="AF4" s="175"/>
+      <c r="AG4" s="176"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="115" t="str">
+      <c r="D5" s="192" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="115" t="str">
+      <c r="E5" s="193"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="192" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="115" t="str">
+      <c r="H5" s="193"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="192" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="123" t="str">
+      <c r="K5" s="193"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="192"/>
+      <c r="N5" s="193"/>
+      <c r="O5" s="194"/>
+      <c r="P5" s="206" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="115" t="str">
+      <c r="Q5" s="207"/>
+      <c r="R5" s="208"/>
+      <c r="S5" s="192" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="118"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="127" t="str">
+      <c r="T5" s="193"/>
+      <c r="U5" s="194"/>
+      <c r="V5" s="181" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="128"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="127" t="str">
+      <c r="W5" s="182"/>
+      <c r="X5" s="183"/>
+      <c r="Y5" s="181" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="112" t="str">
+      <c r="Z5" s="182"/>
+      <c r="AA5" s="183"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="183"/>
+      <c r="AE5" s="205" t="str">
         <f>P20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="114"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="188"/>
       <c r="AQ5" s="89" t="s">
         <v>691</v>
       </c>
@@ -6789,109 +6848,109 @@
     </row>
     <row r="6" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="3"/>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="106" t="s">
+      <c r="F6" s="203"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="106" t="s">
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="106" t="s">
+      <c r="L6" s="203"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="107"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="106" t="s">
+      <c r="O6" s="203"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="107"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="106" t="s">
+      <c r="R6" s="203"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="107"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="109" t="s">
+      <c r="U6" s="203"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="109" t="s">
+      <c r="X6" s="175"/>
+      <c r="Y6" s="176"/>
+      <c r="Z6" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="AA6" s="110"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="109" t="s">
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="176"/>
+      <c r="AC6" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="111"/>
-      <c r="AF6" s="109" t="s">
+      <c r="AD6" s="175"/>
+      <c r="AE6" s="176"/>
+      <c r="AF6" s="180" t="s">
         <v>370</v>
       </c>
-      <c r="AG6" s="110"/>
-      <c r="AH6" s="111"/>
+      <c r="AG6" s="175"/>
+      <c r="AH6" s="176"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="120" t="str">
+      <c r="E7" s="209" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="115" t="str">
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="192" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="115" t="str">
+      <c r="I7" s="193"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="192" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="118"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="126" t="str">
+      <c r="L7" s="193"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="212" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="115" t="str">
+      <c r="R7" s="207"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="192" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="118"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="127" t="str">
+      <c r="U7" s="193"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="181" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="127" t="str">
+      <c r="X7" s="182"/>
+      <c r="Y7" s="183"/>
+      <c r="Z7" s="181" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="128"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="145"/>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="129"/>
+      <c r="AA7" s="182"/>
+      <c r="AB7" s="183"/>
+      <c r="AC7" s="181"/>
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="183"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="182"/>
+      <c r="AH7" s="183"/>
       <c r="AQ7" s="89" t="s">
         <v>692</v>
       </c>
@@ -6900,112 +6959,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="106" t="s">
+      <c r="G8" s="203"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="106" t="s">
+      <c r="J8" s="203"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="107"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="106" t="s">
+      <c r="M8" s="203"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="106" t="s">
+      <c r="P8" s="203"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="107"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="106" t="s">
+      <c r="S8" s="203"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="V8" s="107"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="109" t="s">
+      <c r="V8" s="203"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="180" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="109" t="s">
+      <c r="Y8" s="175"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="180" t="s">
         <v>367</v>
       </c>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="109" t="s">
+      <c r="AB8" s="175"/>
+      <c r="AC8" s="176"/>
+      <c r="AD8" s="180" t="s">
         <v>368</v>
       </c>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="144" t="s">
+      <c r="AE8" s="175"/>
+      <c r="AF8" s="176"/>
+      <c r="AG8" s="184" t="s">
         <v>369</v>
       </c>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="111"/>
+      <c r="AH8" s="175"/>
+      <c r="AI8" s="176"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="115"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="115" t="str">
+      <c r="F9" s="192"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="192" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="118"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="115" t="str">
+      <c r="J9" s="193"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="192" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="118"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="120" t="str">
+      <c r="M9" s="193"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="209" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="123" t="str">
+      <c r="P9" s="210"/>
+      <c r="Q9" s="211"/>
+      <c r="R9" s="206" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="124"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="115" t="str">
+      <c r="S9" s="207"/>
+      <c r="T9" s="208"/>
+      <c r="U9" s="192" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="118"/>
-      <c r="W9" s="119"/>
-      <c r="X9" s="112" t="str">
+      <c r="V9" s="193"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="205" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="114"/>
-      <c r="AA9" s="127" t="str">
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="181" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="146" t="str">
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="186" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="129"/>
+      <c r="AE9" s="187"/>
+      <c r="AF9" s="188"/>
+      <c r="AG9" s="181"/>
+      <c r="AH9" s="182"/>
+      <c r="AI9" s="183"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="2"/>
@@ -7456,17 +7515,61 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
@@ -7483,61 +7586,17 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AD9:AF9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7574,348 +7633,348 @@
       </c>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="106" t="s">
         <v>753</v>
       </c>
-      <c r="C2" s="148" t="s">
+      <c r="C2" s="107" t="s">
         <v>753</v>
       </c>
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="107" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="148">
+      <c r="D3" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="106" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="107" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="107" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="107" t="s">
         <v>343</v>
       </c>
-      <c r="D5" s="148" t="s">
+      <c r="D5" s="107" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="106" t="s">
         <v>754</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="107" t="s">
         <v>754</v>
       </c>
-      <c r="D6" s="148" t="s">
+      <c r="D6" s="107" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="148" t="s">
+      <c r="D7" s="107" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="106" t="s">
         <v>304</v>
       </c>
-      <c r="C8" s="148" t="s">
+      <c r="C8" s="107" t="s">
         <v>304</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="107" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="106" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="D9" s="148" t="s">
+      <c r="D9" s="107" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="106" t="s">
         <v>355</v>
       </c>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="107" t="s">
         <v>355</v>
       </c>
-      <c r="D10" s="148">
+      <c r="D10" s="107">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="147">
+      <c r="B11" s="106">
         <v>3</v>
       </c>
-      <c r="C11" s="148">
+      <c r="C11" s="107">
         <v>3</v>
       </c>
-      <c r="D11" s="148" t="s">
+      <c r="D11" s="107" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="107" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="C13" s="148" t="s">
+      <c r="C13" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="D13" s="148" t="s">
+      <c r="D13" s="107" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="148" t="s">
+      <c r="C14" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="148">
+      <c r="D14" s="107">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="147">
+      <c r="B15" s="106">
         <v>2</v>
       </c>
-      <c r="C15" s="148">
+      <c r="C15" s="107">
         <v>2</v>
       </c>
-      <c r="D15" s="148" t="s">
+      <c r="D15" s="107" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="106" t="s">
         <v>406</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="107" t="s">
         <v>406</v>
       </c>
-      <c r="D16" s="148" t="s">
+      <c r="D16" s="107" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="107" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="107" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="106" t="s">
         <v>376</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="107" t="s">
         <v>376</v>
       </c>
-      <c r="D19" s="148">
+      <c r="D19" s="107">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="147">
+      <c r="B20" s="106">
         <v>5</v>
       </c>
-      <c r="C20" s="148">
+      <c r="C20" s="107">
         <v>5</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="107" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="147" t="s">
+      <c r="B21" s="106" t="s">
         <v>309</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="107" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="106" t="s">
         <v>311</v>
       </c>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="107" t="s">
         <v>311</v>
       </c>
-      <c r="D22" s="148">
+      <c r="D22" s="107">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="148" t="s">
+      <c r="C23" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="148" t="s">
+      <c r="D23" s="107" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="147">
+      <c r="B24" s="106">
         <v>7</v>
       </c>
-      <c r="C24" s="148">
+      <c r="C24" s="107">
         <v>7</v>
       </c>
-      <c r="D24" s="148" t="s">
+      <c r="D24" s="107" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="147" t="s">
+      <c r="B25" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="148" t="s">
+      <c r="C25" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="D25" s="148" t="s">
+      <c r="D25" s="107" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="147" t="s">
+      <c r="B26" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="148">
+      <c r="D26" s="107">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="147" t="s">
+      <c r="B27" s="106" t="s">
         <v>755</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="107" t="s">
         <v>755</v>
       </c>
-      <c r="D27" s="148" t="s">
+      <c r="D27" s="107" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="106" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="148" t="s">
+      <c r="C28" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="D28" s="148" t="s">
+      <c r="D28" s="107" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="147" t="s">
+      <c r="B29" s="106" t="s">
         <v>756</v>
       </c>
-      <c r="C29" s="148" t="s">
+      <c r="C29" s="107" t="s">
         <v>756</v>
       </c>
-      <c r="D29" s="148" t="s">
+      <c r="D29" s="107" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="147" t="s">
+      <c r="B30" s="106" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="148" t="s">
+      <c r="C30" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="148" t="s">
+      <c r="D30" s="107" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="148" t="s">
+      <c r="C31" s="107" t="s">
         <v>227</v>
       </c>
-      <c r="D31" s="148" t="s">
+      <c r="D31" s="107" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="C32" s="148" t="s">
+      <c r="C32" s="107" t="s">
         <v>757</v>
       </c>
-      <c r="D32" s="148" t="s">
+      <c r="D32" s="107" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="148" t="s">
+      <c r="C33" s="107" t="s">
         <v>378</v>
       </c>
-      <c r="D33" s="148" t="s">
+      <c r="D33" s="107" t="s">
         <v>166</v>
       </c>
     </row>
@@ -9576,12 +9635,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="98.75" style="164" customWidth="1"/>
+    <col min="1" max="1" width="98.75" style="119" customWidth="1"/>
     <col min="2" max="2" width="4.75" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="4.75" style="29" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="52" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="12.625" style="167" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="122" customWidth="1"/>
     <col min="8" max="8" width="12.625" style="51" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="52" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="4.75" style="29" customWidth="1"/>
@@ -9594,10 +9653,10 @@
     <col min="18" max="18" width="12.625" style="52" customWidth="1"/>
     <col min="19" max="19" width="12.625" style="51" customWidth="1"/>
     <col min="20" max="22" width="9" style="29"/>
-    <col min="23" max="23" width="14.75" style="182" customWidth="1"/>
+    <col min="23" max="23" width="14.75" style="136" customWidth="1"/>
     <col min="24" max="26" width="11.5" style="52" customWidth="1"/>
     <col min="27" max="27" width="14.75" style="29" customWidth="1"/>
-    <col min="28" max="28" width="14.75" style="164" customWidth="1"/>
+    <col min="28" max="28" width="14.75" style="119" customWidth="1"/>
     <col min="29" max="31" width="14.75" style="29" customWidth="1"/>
     <col min="32" max="32" width="1.75" style="29" customWidth="1"/>
     <col min="33" max="33" width="34.375" style="52" customWidth="1"/>
@@ -9616,13 +9675,13 @@
       </c>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="119" t="s">
         <v>456</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="G2" s="168" t="s">
+      <c r="G2" s="123" t="s">
         <v>759</v>
       </c>
       <c r="H2" s="54" t="s">
@@ -9643,7 +9702,7 @@
       <c r="S2" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="W2" s="183" t="s">
+      <c r="W2" s="137" t="s">
         <v>763</v>
       </c>
       <c r="X2" s="92" t="s">
@@ -9658,7 +9717,7 @@
       <c r="AA2" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="AB2" s="173" t="s">
+      <c r="AB2" s="128" t="s">
         <v>761</v>
       </c>
       <c r="AC2" s="92" t="s">
@@ -9672,7 +9731,7 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="36">
-      <c r="A3" s="164" t="str">
+      <c r="A3" s="119" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($G$3:$G$31)</f>
         <v>pPm0tTnl3kKh2fbgj5cCs7iuＭaOoe</v>
       </c>
@@ -9683,19 +9742,19 @@
       <c r="E3" s="29">
         <v>1</v>
       </c>
-      <c r="F3" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G3, 字典編碼, 0)), "")</f>
+      <c r="F3" s="108" t="str">
+        <f t="shared" ref="F3:F31" si="0" xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G3, 字典編碼, 0)), "")</f>
         <v>p</v>
       </c>
-      <c r="G3" s="169" t="s">
+      <c r="G3" s="124" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G3, 字典編碼, 0)), "")</f>
+      <c r="H3" s="57" t="str">
+        <f t="shared" ref="H3:H31" si="1" xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G3, 字典編碼, 0)), "")</f>
         <v>1</v>
       </c>
-      <c r="I3" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G3, 字典編碼, 0)), "")</f>
+      <c r="I3" s="69" t="str">
+        <f t="shared" ref="I3:I31" si="2" xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G3, 字典編碼, 0)), "")</f>
         <v>ㄅ</v>
       </c>
       <c r="L3" s="29">
@@ -9705,7 +9764,7 @@
         <v>166</v>
       </c>
       <c r="N3" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M3, 字典編碼, 0)), "")</f>
+        <f t="shared" ref="N3:N33" si="3" xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M3, 字典編碼, 0)), "")</f>
         <v>ㄅ</v>
       </c>
       <c r="Q3" s="29" cm="1">
@@ -9716,14 +9775,14 @@
         <v>1</v>
       </c>
       <c r="S3" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R3, 鍵盤位置, 0)), "")</f>
+        <f t="shared" ref="S3:S33" si="4" xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R3, 鍵盤位置, 0)), "")</f>
         <v/>
       </c>
       <c r="V3" s="103" cm="1">
         <f t="array" ref="V3" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>1</v>
       </c>
-      <c r="W3" s="182" t="s">
+      <c r="W3" s="136" t="s">
         <v>403</v>
       </c>
       <c r="X3" s="100" t="s">
@@ -9738,7 +9797,7 @@
       <c r="AA3" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="AB3" s="174" t="s">
+      <c r="AB3" s="129" t="s">
         <v>166</v>
       </c>
       <c r="AC3" s="94" t="s">
@@ -9752,7 +9811,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="36">
-      <c r="A4" s="164" t="str">
+      <c r="A4" s="119" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($H$3:$H$31)</f>
         <v>11az22sx3eec4vtgb6yyn7ujm8ii,</v>
       </c>
@@ -9763,19 +9822,19 @@
       <c r="E4" s="29">
         <v>2</v>
       </c>
-      <c r="F4" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G4, 字典編碼, 0)), "")</f>
+      <c r="F4" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>p</v>
       </c>
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="124" t="s">
         <v>302</v>
       </c>
-      <c r="H4" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G4, 字典編碼, 0)), "")</f>
+      <c r="H4" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I4" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G4, 字典編碼, 0)), "")</f>
+      <c r="I4" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄅ</v>
       </c>
       <c r="L4" s="29">
@@ -9785,7 +9844,7 @@
         <v>302</v>
       </c>
       <c r="N4" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M4, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄅ</v>
       </c>
       <c r="Q4" s="29" cm="1">
@@ -9796,35 +9855,35 @@
         <v>394</v>
       </c>
       <c r="S4" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R4, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄆ</v>
       </c>
       <c r="V4" s="104" cm="1">
         <f t="array" ref="V4" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>2</v>
       </c>
-      <c r="W4" s="182" t="s">
+      <c r="W4" s="136" t="s">
         <v>394</v>
       </c>
-      <c r="X4" s="155" t="s">
+      <c r="X4" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y4" s="155" t="s">
+      <c r="Y4" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z4" s="155" t="s">
+      <c r="Z4" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA4" s="152" t="s">
+      <c r="AA4" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="AB4" s="175" t="s">
+      <c r="AB4" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="AC4" s="157" t="s">
+      <c r="AC4" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="AD4" s="157" t="s">
+      <c r="AD4" s="113" t="s">
         <v>302</v>
       </c>
       <c r="AE4" s="96" t="s">
@@ -9832,26 +9891,26 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="36">
-      <c r="A5" s="166" t="str">
+      <c r="A5" s="121" t="str">
         <f xml:space="preserve"> "xlit|" &amp; A3 &amp; "|" &amp; A4 &amp; "|"</f>
         <v>xlit|pPm0tTnl3kKh2fbgj5cCs7iuＭaOoe|11az22sx3eec4vtgb6yyn7ujm8ii,|</v>
       </c>
       <c r="E5" s="29">
         <v>3</v>
       </c>
-      <c r="F5" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G5, 字典編碼, 0)), "")</f>
+      <c r="F5" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>m</v>
       </c>
-      <c r="G5" s="169" t="s">
+      <c r="G5" s="124" t="s">
         <v>343</v>
       </c>
-      <c r="H5" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G5, 字典編碼, 0)), "")</f>
+      <c r="H5" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
-      <c r="I5" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G5, 字典編碼, 0)), "")</f>
+      <c r="I5" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄇ</v>
       </c>
       <c r="L5" s="29">
@@ -9861,7 +9920,7 @@
         <v>343</v>
       </c>
       <c r="N5" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M5, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄇ</v>
       </c>
       <c r="Q5" s="29" cm="1">
@@ -9872,35 +9931,35 @@
         <v>222</v>
       </c>
       <c r="S5" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R5, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄇ</v>
       </c>
       <c r="V5" s="104" cm="1">
         <f t="array" ref="V5" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>3</v>
       </c>
-      <c r="W5" s="182" t="s">
+      <c r="W5" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="X5" s="155" t="s">
+      <c r="X5" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y5" s="155" t="s">
+      <c r="Y5" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z5" s="155" t="s">
+      <c r="Z5" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA5" s="152" t="s">
+      <c r="AA5" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="AB5" s="175" t="s">
+      <c r="AB5" s="122" t="s">
         <v>395</v>
       </c>
-      <c r="AC5" s="157" t="s">
+      <c r="AC5" s="113" t="s">
         <v>343</v>
       </c>
-      <c r="AD5" s="157" t="s">
+      <c r="AD5" s="113" t="s">
         <v>717</v>
       </c>
       <c r="AE5" s="96" t="s">
@@ -9914,19 +9973,19 @@
       <c r="E6" s="29">
         <v>4</v>
       </c>
-      <c r="F6" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G6, 字典編碼, 0)), "")</f>
+      <c r="F6" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>Z</v>
       </c>
-      <c r="G6" s="169">
+      <c r="G6" s="124">
         <v>0</v>
       </c>
-      <c r="H6" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G6, 字典編碼, 0)), "")</f>
+      <c r="H6" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>z</v>
       </c>
-      <c r="I6" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G6, 字典編碼, 0)), "")</f>
+      <c r="I6" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ﾟ</v>
       </c>
       <c r="K6" s="91" t="s">
@@ -9939,7 +9998,7 @@
         <v>754</v>
       </c>
       <c r="N6" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M6, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q6" s="29" cm="1">
@@ -9950,35 +10009,35 @@
         <v>310</v>
       </c>
       <c r="S6" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R6, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ﾟ</v>
       </c>
       <c r="V6" s="105" cm="1">
         <f t="array" ref="V6" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>4</v>
       </c>
-      <c r="W6" s="182" t="s">
+      <c r="W6" s="136" t="s">
         <v>310</v>
       </c>
-      <c r="X6" s="155" t="s">
+      <c r="X6" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y6" s="155" t="s">
+      <c r="Y6" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z6" s="155" t="s">
+      <c r="Z6" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA6" s="158" t="s">
+      <c r="AA6" s="114" t="s">
         <v>739</v>
       </c>
-      <c r="AB6" s="175">
+      <c r="AB6" s="122">
         <v>0</v>
       </c>
-      <c r="AC6" s="157" t="s">
+      <c r="AC6" s="113" t="s">
         <v>695</v>
       </c>
-      <c r="AD6" s="157" t="s">
+      <c r="AD6" s="113" t="s">
         <v>695</v>
       </c>
       <c r="AE6" s="96" t="s">
@@ -9992,19 +10051,19 @@
       <c r="E7" s="29">
         <v>5</v>
       </c>
-      <c r="F7" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G7, 字典編碼, 0)), "")</f>
+      <c r="F7" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>t</v>
       </c>
-      <c r="G7" s="169" t="s">
+      <c r="G7" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G7, 字典編碼, 0)), "")</f>
+      <c r="H7" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I7" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G7, 字典編碼, 0)), "")</f>
+      <c r="I7" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄉ</v>
       </c>
       <c r="L7" s="29">
@@ -10014,7 +10073,7 @@
         <v>168</v>
       </c>
       <c r="N7" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M7, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄉ</v>
       </c>
       <c r="Q7" s="29" cm="1">
@@ -10025,35 +10084,35 @@
         <v>382</v>
       </c>
       <c r="S7" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R7, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄊ</v>
       </c>
       <c r="V7" s="103" cm="1">
         <f t="array" ref="V7" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>5</v>
       </c>
-      <c r="W7" s="182" t="s">
+      <c r="W7" s="136" t="s">
         <v>404</v>
       </c>
-      <c r="X7" s="155" t="s">
+      <c r="X7" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y7" s="155" t="s">
+      <c r="Y7" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z7" s="155" t="s">
+      <c r="Z7" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="AA7" s="156" t="s">
+      <c r="AA7" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="AB7" s="175" t="s">
+      <c r="AB7" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="AC7" s="157" t="s">
+      <c r="AC7" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="AD7" s="157" t="s">
+      <c r="AD7" s="113" t="s">
         <v>168</v>
       </c>
       <c r="AE7" s="96" t="s">
@@ -10061,25 +10120,25 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="36">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="119" t="s">
         <v>457</v>
       </c>
       <c r="E8" s="29">
         <v>6</v>
       </c>
-      <c r="F8" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G8, 字典編碼, 0)), "")</f>
+      <c r="F8" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>t</v>
       </c>
-      <c r="G8" s="169" t="s">
+      <c r="G8" s="124" t="s">
         <v>304</v>
       </c>
-      <c r="H8" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G8, 字典編碼, 0)), "")</f>
+      <c r="H8" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I8" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G8, 字典編碼, 0)), "")</f>
+      <c r="I8" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄉ</v>
       </c>
       <c r="L8" s="29">
@@ -10089,7 +10148,7 @@
         <v>304</v>
       </c>
       <c r="N8" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M8, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄉ</v>
       </c>
       <c r="Q8" s="29" cm="1">
@@ -10100,35 +10159,35 @@
         <v>180</v>
       </c>
       <c r="S8" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R8, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄋ</v>
       </c>
       <c r="V8" s="104" cm="1">
         <f t="array" ref="V8" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>6</v>
       </c>
-      <c r="W8" s="182" t="s">
+      <c r="W8" s="136" t="s">
         <v>382</v>
       </c>
-      <c r="X8" s="155" t="s">
+      <c r="X8" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y8" s="155" t="s">
+      <c r="Y8" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z8" s="155" t="s">
+      <c r="Z8" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA8" s="152" t="s">
+      <c r="AA8" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="AB8" s="175" t="s">
+      <c r="AB8" s="122" t="s">
         <v>304</v>
       </c>
-      <c r="AC8" s="157" t="s">
+      <c r="AC8" s="113" t="s">
         <v>353</v>
       </c>
-      <c r="AD8" s="157" t="s">
+      <c r="AD8" s="113" t="s">
         <v>304</v>
       </c>
       <c r="AE8" s="96" t="s">
@@ -10136,7 +10195,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="36">
-      <c r="A9" s="164" t="str">
+      <c r="A9" s="119" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($M3:$M33)</f>
         <v>pPmZtTnl3kKh2fbgj5cCs7iuＭaOoeFN</v>
       </c>
@@ -10147,19 +10206,19 @@
       <c r="E9" s="29">
         <v>7</v>
       </c>
-      <c r="F9" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G9, 字典編碼, 0)), "")</f>
+      <c r="F9" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="G9" s="169" t="s">
+      <c r="G9" s="124" t="s">
         <v>354</v>
       </c>
-      <c r="H9" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G9, 字典編碼, 0)), "")</f>
+      <c r="H9" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>s</v>
       </c>
-      <c r="I9" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G9, 字典編碼, 0)), "")</f>
+      <c r="I9" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄋ</v>
       </c>
       <c r="L9" s="29">
@@ -10169,7 +10228,7 @@
         <v>354</v>
       </c>
       <c r="N9" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M9, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄋ</v>
       </c>
       <c r="Q9" s="29" cm="1">
@@ -10180,35 +10239,35 @@
         <v>405</v>
       </c>
       <c r="S9" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R9, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄌ</v>
       </c>
       <c r="V9" s="104" cm="1">
         <f t="array" ref="V9" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>7</v>
       </c>
-      <c r="W9" s="182" t="s">
+      <c r="W9" s="136" t="s">
         <v>180</v>
       </c>
-      <c r="X9" s="155" t="s">
+      <c r="X9" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y9" s="155" t="s">
+      <c r="Y9" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z9" s="155" t="s">
+      <c r="Z9" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA9" s="152" t="s">
+      <c r="AA9" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="AB9" s="175" t="s">
+      <c r="AB9" s="122" t="s">
         <v>399</v>
       </c>
-      <c r="AC9" s="157" t="s">
+      <c r="AC9" s="113" t="s">
         <v>354</v>
       </c>
-      <c r="AD9" s="157" t="s">
+      <c r="AD9" s="113" t="s">
         <v>399</v>
       </c>
       <c r="AE9" s="96" t="s">
@@ -10219,7 +10278,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="36">
-      <c r="A10" s="164" t="str">
+      <c r="A10" s="119" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($N3:$N33)</f>
         <v>ㄅㄅㄇㄉㄉㄋㄌ˪ㄍㄍㄏˋㄫㆠㆣㆡˊㄗㄗㄙ˫ㄧㄨㆬㄚㆦㆦㄝㄫㄋ</v>
       </c>
@@ -10230,19 +10289,19 @@
       <c r="E10" s="29">
         <v>8</v>
       </c>
-      <c r="F10" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G10, 字典編碼, 0)), "")</f>
+      <c r="F10" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>l</v>
       </c>
-      <c r="G10" s="170" t="s">
+      <c r="G10" s="125" t="s">
         <v>355</v>
       </c>
-      <c r="H10" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G10, 字典編碼, 0)), "")</f>
+      <c r="H10" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="I10" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G10, 字典編碼, 0)), "")</f>
+      <c r="I10" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄌ</v>
       </c>
       <c r="L10" s="29">
@@ -10252,7 +10311,7 @@
         <v>355</v>
       </c>
       <c r="N10" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M10, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄌ</v>
       </c>
       <c r="Q10" s="29" cm="1">
@@ -10263,35 +10322,35 @@
         <v>3</v>
       </c>
       <c r="S10" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R10, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>˪</v>
       </c>
       <c r="V10" s="104" cm="1">
         <f t="array" ref="V10" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>8</v>
       </c>
-      <c r="W10" s="182" t="s">
+      <c r="W10" s="136" t="s">
         <v>405</v>
       </c>
-      <c r="X10" s="155" t="s">
+      <c r="X10" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y10" s="155" t="s">
+      <c r="Y10" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z10" s="155" t="s">
+      <c r="Z10" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA10" s="152" t="s">
+      <c r="AA10" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" s="175" t="s">
+      <c r="AB10" s="122" t="s">
         <v>429</v>
       </c>
-      <c r="AC10" s="157" t="s">
+      <c r="AC10" s="113" t="s">
         <v>355</v>
       </c>
-      <c r="AD10" s="157" t="s">
+      <c r="AD10" s="113" t="s">
         <v>429</v>
       </c>
       <c r="AE10" s="96" t="s">
@@ -10299,26 +10358,26 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="36">
-      <c r="A11" s="166" t="str">
+      <c r="A11" s="121" t="str">
         <f xml:space="preserve"> "xlit|" &amp; A9 &amp; "|" &amp; A10 &amp; "|"</f>
         <v>xlit|pPmZtTnl3kKh2fbgj5cCs7iuＭaOoeFN|ㄅㄅㄇㄉㄉㄋㄌ˪ㄍㄍㄏˋㄫㆠㆣㆡˊㄗㄗㄙ˫ㄧㄨㆬㄚㆦㆦㄝㄫㄋ|</v>
       </c>
       <c r="E11" s="29">
         <v>9</v>
       </c>
-      <c r="F11" s="151">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G11, 字典編碼, 0)), "")</f>
+      <c r="F11" s="108">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G11" s="169">
+      <c r="G11" s="124">
         <v>3</v>
       </c>
-      <c r="H11" s="149">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G11, 字典編碼, 0)), "")</f>
+      <c r="H11" s="57">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I11" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G11, 字典編碼, 0)), "")</f>
+      <c r="I11" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>˪</v>
       </c>
       <c r="L11" s="29">
@@ -10328,7 +10387,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M11, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>˪</v>
       </c>
       <c r="Q11" s="29" cm="1">
@@ -10339,35 +10398,35 @@
         <v>227</v>
       </c>
       <c r="S11" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R11, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄍ</v>
       </c>
       <c r="V11" s="103" cm="1">
         <f t="array" ref="V11" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>9</v>
       </c>
-      <c r="W11" s="184">
+      <c r="W11" s="138">
         <v>3</v>
       </c>
-      <c r="X11" s="155" t="s">
+      <c r="X11" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y11" s="155" t="s">
+      <c r="Y11" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z11" s="155" t="s">
+      <c r="Z11" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA11" s="159" t="s">
+      <c r="AA11" s="114" t="s">
         <v>742</v>
       </c>
-      <c r="AB11" s="175">
+      <c r="AB11" s="122">
         <v>3</v>
       </c>
-      <c r="AC11" s="156">
+      <c r="AC11" s="51">
         <v>3</v>
       </c>
-      <c r="AD11" s="156">
+      <c r="AD11" s="51">
         <v>3</v>
       </c>
       <c r="AE11" s="96" t="s">
@@ -10381,19 +10440,19 @@
       <c r="E12" s="29">
         <v>10</v>
       </c>
-      <c r="F12" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G12, 字典編碼, 0)), "")</f>
+      <c r="F12" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>k</v>
       </c>
-      <c r="G12" s="169" t="s">
+      <c r="G12" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="H12" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G12, 字典編碼, 0)), "")</f>
+      <c r="H12" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>e</v>
       </c>
-      <c r="I12" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G12, 字典編碼, 0)), "")</f>
+      <c r="I12" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄍ</v>
       </c>
       <c r="L12" s="29">
@@ -10403,7 +10462,7 @@
         <v>169</v>
       </c>
       <c r="N12" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M12, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄍ</v>
       </c>
       <c r="Q12" s="29" cm="1">
@@ -10414,35 +10473,35 @@
         <v>306</v>
       </c>
       <c r="S12" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R12, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄎ</v>
       </c>
       <c r="V12" s="104" cm="1">
         <f t="array" ref="V12" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>10</v>
       </c>
-      <c r="W12" s="182" t="s">
+      <c r="W12" s="136" t="s">
         <v>227</v>
       </c>
-      <c r="X12" s="155" t="s">
+      <c r="X12" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y12" s="155" t="s">
+      <c r="Y12" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z12" s="155" t="s">
+      <c r="Z12" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA12" s="152" t="s">
+      <c r="AA12" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="AB12" s="175" t="s">
+      <c r="AB12" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="AC12" s="157" t="s">
+      <c r="AC12" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="AD12" s="157" t="s">
+      <c r="AD12" s="113" t="s">
         <v>169</v>
       </c>
       <c r="AE12" s="96" t="s">
@@ -10450,25 +10509,25 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="36">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="119" t="s">
         <v>460</v>
       </c>
       <c r="E13" s="29">
         <v>11</v>
       </c>
-      <c r="F13" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G13, 字典編碼, 0)), "")</f>
+      <c r="F13" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>k</v>
       </c>
-      <c r="G13" s="170" t="s">
+      <c r="G13" s="125" t="s">
         <v>307</v>
       </c>
-      <c r="H13" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G13, 字典編碼, 0)), "")</f>
+      <c r="H13" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>e</v>
       </c>
-      <c r="I13" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G13, 字典編碼, 0)), "")</f>
+      <c r="I13" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄍ</v>
       </c>
       <c r="L13" s="29">
@@ -10478,7 +10537,7 @@
         <v>307</v>
       </c>
       <c r="N13" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M13, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄍ</v>
       </c>
       <c r="Q13" s="29" cm="1">
@@ -10489,35 +10548,35 @@
         <v>309</v>
       </c>
       <c r="S13" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R13, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄏ</v>
       </c>
       <c r="V13" s="104" cm="1">
         <f t="array" ref="V13" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>11</v>
       </c>
-      <c r="W13" s="182" t="s">
+      <c r="W13" s="136" t="s">
         <v>306</v>
       </c>
-      <c r="X13" s="155" t="s">
+      <c r="X13" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y13" s="155" t="s">
+      <c r="Y13" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z13" s="155" t="s">
+      <c r="Z13" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA13" s="152" t="s">
+      <c r="AA13" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="AB13" s="175" t="s">
+      <c r="AB13" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="AC13" s="157" t="s">
+      <c r="AC13" s="113" t="s">
         <v>356</v>
       </c>
-      <c r="AD13" s="157" t="s">
+      <c r="AD13" s="113" t="s">
         <v>307</v>
       </c>
       <c r="AE13" s="96" t="s">
@@ -10525,7 +10584,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="36">
-      <c r="A14" s="164" t="str">
+      <c r="A14" s="119" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(R3:R33)</f>
         <v>1qazwsx3edc4vtgb6yh7ujm8ik,ol.p</v>
       </c>
@@ -10536,19 +10595,19 @@
       <c r="E14" s="29">
         <v>12</v>
       </c>
-      <c r="F14" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G14, 字典編碼, 0)), "")</f>
+      <c r="F14" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>h</v>
       </c>
-      <c r="G14" s="169" t="s">
+      <c r="G14" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G14, 字典編碼, 0)), "")</f>
+      <c r="H14" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>c</v>
       </c>
-      <c r="I14" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G14, 字典編碼, 0)), "")</f>
+      <c r="I14" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄏ</v>
       </c>
       <c r="L14" s="29">
@@ -10558,7 +10617,7 @@
         <v>172</v>
       </c>
       <c r="N14" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M14, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄏ</v>
       </c>
       <c r="Q14" s="29" cm="1">
@@ -10569,35 +10628,35 @@
         <v>4</v>
       </c>
       <c r="S14" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R14, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ˋ</v>
       </c>
       <c r="V14" s="105" cm="1">
         <f t="array" ref="V14" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>12</v>
       </c>
-      <c r="W14" s="182" t="s">
+      <c r="W14" s="136" t="s">
         <v>309</v>
       </c>
-      <c r="X14" s="155" t="s">
+      <c r="X14" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y14" s="155" t="s">
+      <c r="Y14" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z14" s="155" t="s">
+      <c r="Z14" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA14" s="152" t="s">
+      <c r="AA14" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="AB14" s="175" t="s">
+      <c r="AB14" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="AC14" s="157" t="s">
+      <c r="AC14" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="AD14" s="157" t="s">
+      <c r="AD14" s="113" t="s">
         <v>172</v>
       </c>
       <c r="AE14" s="96" t="s">
@@ -10605,7 +10664,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="36">
-      <c r="A15" s="165" t="str">
+      <c r="A15" s="120" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(S3:S33)</f>
         <v>ㄆㄇﾟㄊㄋㄌ˪ㄍㄎㄏˋㄫㆠㆣㆡˊㄗㄘ˫ㄧㄨㆬㄚㆦㄜㄝＰＬㄥㄣ</v>
       </c>
@@ -10616,19 +10675,19 @@
       <c r="E15" s="29">
         <v>13</v>
       </c>
-      <c r="F15" s="151">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G15, 字典編碼, 0)), "")</f>
+      <c r="F15" s="108">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G15" s="169">
+      <c r="G15" s="124">
         <v>2</v>
       </c>
-      <c r="H15" s="149">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G15, 字典編碼, 0)), "")</f>
+      <c r="H15" s="57">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G15, 字典編碼, 0)), "")</f>
+      <c r="I15" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ˋ</v>
       </c>
       <c r="L15" s="29">
@@ -10638,7 +10697,7 @@
         <v>2</v>
       </c>
       <c r="N15" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M15, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ˋ</v>
       </c>
       <c r="Q15" s="29" cm="1">
@@ -10649,35 +10708,35 @@
         <v>409</v>
       </c>
       <c r="S15" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R15, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄫ</v>
       </c>
       <c r="V15" s="103" cm="1">
         <f t="array" ref="V15" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>13</v>
       </c>
-      <c r="W15" s="184">
+      <c r="W15" s="138">
         <v>4</v>
       </c>
-      <c r="X15" s="155" t="s">
+      <c r="X15" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y15" s="155" t="s">
+      <c r="Y15" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z15" s="155" t="s">
+      <c r="Z15" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA15" s="159" t="s">
+      <c r="AA15" s="114" t="s">
         <v>745</v>
       </c>
-      <c r="AB15" s="175">
+      <c r="AB15" s="122">
         <v>2</v>
       </c>
-      <c r="AC15" s="156">
+      <c r="AC15" s="51">
         <v>2</v>
       </c>
-      <c r="AD15" s="156">
+      <c r="AD15" s="51">
         <v>2</v>
       </c>
       <c r="AE15" s="96" t="s">
@@ -10688,26 +10747,26 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="36">
-      <c r="A16" s="166" t="str">
+      <c r="A16" s="121" t="str">
         <f xml:space="preserve"> "xlit|" &amp; A14 &amp; "|" &amp; A15 &amp; "|"</f>
         <v>xlit|1qazwsx3edc4vtgb6yh7ujm8ik,ol.p|ㄆㄇﾟㄊㄋㄌ˪ㄍㄎㄏˋㄫㆠㆣㆡˊㄗㄘ˫ㄧㄨㆬㄚㆦㄜㄝＰＬㄥㄣ|</v>
       </c>
       <c r="E16" s="29">
         <v>14</v>
       </c>
-      <c r="F16" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G16, 字典編碼, 0)), "")</f>
+      <c r="F16" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>ng</v>
       </c>
-      <c r="G16" s="169" t="s">
+      <c r="G16" s="124" t="s">
         <v>406</v>
       </c>
-      <c r="H16" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G16, 字典編碼, 0)), "")</f>
+      <c r="H16" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>v</v>
       </c>
-      <c r="I16" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G16, 字典編碼, 0)), "")</f>
+      <c r="I16" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄫ</v>
       </c>
       <c r="L16" s="29">
@@ -10717,7 +10776,7 @@
         <v>406</v>
       </c>
       <c r="N16" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M16, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄫ</v>
       </c>
       <c r="Q16" s="29" cm="1">
@@ -10728,7 +10787,7 @@
         <v>168</v>
       </c>
       <c r="S16" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R16, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㆠ</v>
       </c>
       <c r="U16" s="29" t="s">
@@ -10738,43 +10797,43 @@
         <f t="array" ref="V16" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>14</v>
       </c>
-      <c r="W16" s="185" t="s">
+      <c r="W16" s="139" t="s">
         <v>423</v>
       </c>
-      <c r="X16" s="160" t="s">
+      <c r="X16" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Y16" s="160" t="s">
+      <c r="Y16" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Z16" s="160" t="s">
+      <c r="Z16" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="AA16" s="152"/>
-      <c r="AB16" s="175" t="s">
+      <c r="AA16" s="109"/>
+      <c r="AB16" s="122" t="s">
         <v>714</v>
       </c>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
       <c r="AE16" s="96"/>
     </row>
     <row r="17" spans="5:33" ht="36">
       <c r="E17" s="29">
         <v>15</v>
       </c>
-      <c r="F17" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G17, 字典編碼, 0)), "")</f>
+      <c r="F17" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>b</v>
       </c>
-      <c r="G17" s="169" t="s">
+      <c r="G17" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="H17" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G17, 字典編碼, 0)), "")</f>
+      <c r="H17" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>t</v>
       </c>
-      <c r="I17" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G17, 字典編碼, 0)), "")</f>
+      <c r="I17" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㆠ</v>
       </c>
       <c r="L17" s="29">
@@ -10784,7 +10843,7 @@
         <v>167</v>
       </c>
       <c r="N17" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M17, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㆠ</v>
       </c>
       <c r="Q17" s="29" cm="1">
@@ -10795,7 +10854,7 @@
         <v>170</v>
       </c>
       <c r="S17" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R17, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㆣ</v>
       </c>
       <c r="U17" s="29" t="s">
@@ -10805,43 +10864,43 @@
         <f t="array" ref="V17" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>15</v>
       </c>
-      <c r="W17" s="185" t="s">
+      <c r="W17" s="139" t="s">
         <v>424</v>
       </c>
-      <c r="X17" s="160" t="s">
+      <c r="X17" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Y17" s="160" t="s">
+      <c r="Y17" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Z17" s="160" t="s">
+      <c r="Z17" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="AA17" s="152"/>
-      <c r="AB17" s="175" t="s">
+      <c r="AA17" s="109"/>
+      <c r="AB17" s="122" t="s">
         <v>714</v>
       </c>
-      <c r="AC17" s="157"/>
-      <c r="AD17" s="157"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
       <c r="AE17" s="96"/>
     </row>
     <row r="18" spans="5:33" ht="36">
       <c r="E18" s="29">
         <v>16</v>
       </c>
-      <c r="F18" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G18, 字典編碼, 0)), "")</f>
+      <c r="F18" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>g</v>
       </c>
-      <c r="G18" s="170" t="s">
+      <c r="G18" s="125" t="s">
         <v>170</v>
       </c>
-      <c r="H18" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G18, 字典編碼, 0)), "")</f>
+      <c r="H18" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>g</v>
       </c>
-      <c r="I18" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G18, 字典編碼, 0)), "")</f>
+      <c r="I18" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㆣ</v>
       </c>
       <c r="L18" s="29">
@@ -10851,7 +10910,7 @@
         <v>170</v>
       </c>
       <c r="N18" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M18, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㆣ</v>
       </c>
       <c r="Q18" s="29" cm="1">
@@ -10862,7 +10921,7 @@
         <v>167</v>
       </c>
       <c r="S18" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R18, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㆡ</v>
       </c>
       <c r="U18" s="29" t="s">
@@ -10872,28 +10931,28 @@
         <f t="array" ref="V18" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>16</v>
       </c>
-      <c r="W18" s="185" t="s">
+      <c r="W18" s="139" t="s">
         <v>425</v>
       </c>
-      <c r="X18" s="155" t="s">
+      <c r="X18" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y18" s="155" t="s">
+      <c r="Y18" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z18" s="155" t="s">
+      <c r="Z18" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA18" s="152" t="s">
+      <c r="AA18" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="AB18" s="176" t="s">
+      <c r="AB18" s="130" t="s">
         <v>424</v>
       </c>
-      <c r="AC18" s="157" t="s">
+      <c r="AC18" s="113" t="s">
         <v>724</v>
       </c>
-      <c r="AD18" s="157" t="s">
+      <c r="AD18" s="113" t="s">
         <v>424</v>
       </c>
       <c r="AE18" s="96" t="s">
@@ -10907,19 +10966,19 @@
       <c r="E19" s="29">
         <v>17</v>
       </c>
-      <c r="F19" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G19, 字典編碼, 0)), "")</f>
+      <c r="F19" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>j</v>
       </c>
-      <c r="G19" s="170" t="s">
+      <c r="G19" s="125" t="s">
         <v>376</v>
       </c>
-      <c r="H19" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G19, 字典編碼, 0)), "")</f>
+      <c r="H19" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>b</v>
       </c>
-      <c r="I19" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G19, 字典編碼, 0)), "")</f>
+      <c r="I19" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㆡ</v>
       </c>
       <c r="L19" s="29">
@@ -10929,7 +10988,7 @@
         <v>376</v>
       </c>
       <c r="N19" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M19, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㆡ</v>
       </c>
       <c r="Q19" s="29" cm="1">
@@ -10940,7 +10999,7 @@
         <v>6</v>
       </c>
       <c r="S19" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R19, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ˊ</v>
       </c>
       <c r="U19" s="29" t="s">
@@ -10950,43 +11009,43 @@
         <f t="array" ref="V19" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>17</v>
       </c>
-      <c r="W19" s="184">
+      <c r="W19" s="138">
         <v>5</v>
       </c>
-      <c r="X19" s="160" t="s">
+      <c r="X19" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Y19" s="160" t="s">
+      <c r="Y19" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Z19" s="160" t="s">
+      <c r="Z19" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="AA19" s="154"/>
-      <c r="AB19" s="177" t="s">
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="131" t="s">
         <v>714</v>
       </c>
-      <c r="AC19" s="154"/>
-      <c r="AD19" s="154"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="111"/>
       <c r="AE19" s="96"/>
     </row>
     <row r="20" spans="5:33" ht="36">
       <c r="E20" s="29">
         <v>18</v>
       </c>
-      <c r="F20" s="151">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G20, 字典編碼, 0)), "")</f>
+      <c r="F20" s="108">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="169">
+      <c r="G20" s="124">
         <v>5</v>
       </c>
-      <c r="H20" s="149">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G20, 字典編碼, 0)), "")</f>
+      <c r="H20" s="57">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I20" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G20, 字典編碼, 0)), "")</f>
+      <c r="I20" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ˊ</v>
       </c>
       <c r="L20" s="29">
@@ -10996,7 +11055,7 @@
         <v>5</v>
       </c>
       <c r="N20" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M20, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ˊ</v>
       </c>
       <c r="Q20" s="29" cm="1">
@@ -11007,7 +11066,7 @@
         <v>411</v>
       </c>
       <c r="S20" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R20, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄗ</v>
       </c>
       <c r="U20" s="29" t="s">
@@ -11017,28 +11076,28 @@
         <f t="array" ref="V20" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>18</v>
       </c>
-      <c r="W20" s="182" t="s">
+      <c r="W20" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="X20" s="155" t="s">
+      <c r="X20" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y20" s="155" t="s">
+      <c r="Y20" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z20" s="155" t="s">
+      <c r="Z20" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA20" s="152" t="s">
+      <c r="AA20" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="AB20" s="175" t="s">
+      <c r="AB20" s="122" t="s">
         <v>397</v>
       </c>
-      <c r="AC20" s="157" t="s">
+      <c r="AC20" s="113" t="s">
         <v>397</v>
       </c>
-      <c r="AD20" s="157" t="s">
+      <c r="AD20" s="113" t="s">
         <v>397</v>
       </c>
       <c r="AE20" s="96" t="s">
@@ -11049,19 +11108,19 @@
       <c r="E21" s="29">
         <v>19</v>
       </c>
-      <c r="F21" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G21, 字典編碼, 0)), "")</f>
+      <c r="F21" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>c</v>
       </c>
-      <c r="G21" s="171" t="s">
+      <c r="G21" s="126" t="s">
         <v>309</v>
       </c>
-      <c r="H21" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G21, 字典編碼, 0)), "")</f>
+      <c r="H21" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
-      <c r="I21" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G21, 字典編碼, 0)), "")</f>
+      <c r="I21" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄗ</v>
       </c>
       <c r="L21" s="29">
@@ -11071,7 +11130,7 @@
         <v>309</v>
       </c>
       <c r="N21" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M21, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄗ</v>
       </c>
       <c r="Q21" s="29" cm="1">
@@ -11082,7 +11141,7 @@
         <v>172</v>
       </c>
       <c r="S21" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R21, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄘ</v>
       </c>
       <c r="U21" s="29" t="s">
@@ -11092,28 +11151,28 @@
         <f t="array" ref="V21" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>19</v>
       </c>
-      <c r="W21" s="182" t="s">
+      <c r="W21" s="136" t="s">
         <v>170</v>
       </c>
-      <c r="X21" s="155" t="s">
+      <c r="X21" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y21" s="155" t="s">
+      <c r="Y21" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z21" s="155" t="s">
+      <c r="Z21" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA21" s="152" t="s">
+      <c r="AA21" s="109" t="s">
         <v>730</v>
       </c>
-      <c r="AB21" s="175" t="s">
+      <c r="AB21" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="AC21" s="157" t="s">
+      <c r="AC21" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="AD21" s="157" t="s">
+      <c r="AD21" s="113" t="s">
         <v>170</v>
       </c>
       <c r="AE21" s="96" t="s">
@@ -11124,19 +11183,19 @@
       <c r="E22" s="29">
         <v>20</v>
       </c>
-      <c r="F22" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G22, 字典編碼, 0)), "")</f>
+      <c r="F22" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>c</v>
       </c>
-      <c r="G22" s="171" t="s">
+      <c r="G22" s="126" t="s">
         <v>311</v>
       </c>
-      <c r="H22" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G22, 字典編碼, 0)), "")</f>
+      <c r="H22" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
-      <c r="I22" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G22, 字典編碼, 0)), "")</f>
+      <c r="I22" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄗ</v>
       </c>
       <c r="L22" s="29">
@@ -11146,7 +11205,7 @@
         <v>311</v>
       </c>
       <c r="N22" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M22, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄗ</v>
       </c>
       <c r="Q22" s="29" cm="1">
@@ -11157,7 +11216,7 @@
         <v>7</v>
       </c>
       <c r="S22" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R22, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>˫</v>
       </c>
       <c r="U22" s="29" t="s">
@@ -11167,28 +11226,28 @@
         <f t="array" ref="V22" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>20</v>
       </c>
-      <c r="W22" s="182" t="s">
+      <c r="W22" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="X22" s="155" t="s">
+      <c r="X22" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y22" s="155" t="s">
+      <c r="Y22" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z22" s="155" t="s">
+      <c r="Z22" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA22" s="152" t="s">
+      <c r="AA22" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="AB22" s="175" t="s">
+      <c r="AB22" s="122" t="s">
         <v>402</v>
       </c>
-      <c r="AC22" s="157" t="s">
+      <c r="AC22" s="113" t="s">
         <v>402</v>
       </c>
-      <c r="AD22" s="157" t="s">
+      <c r="AD22" s="113" t="s">
         <v>402</v>
       </c>
       <c r="AE22" s="96" t="s">
@@ -11199,19 +11258,19 @@
       <c r="E23" s="29">
         <v>21</v>
       </c>
-      <c r="F23" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G23, 字典編碼, 0)), "")</f>
+      <c r="F23" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>s</v>
       </c>
-      <c r="G23" s="171" t="s">
+      <c r="G23" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G23, 字典編碼, 0)), "")</f>
+      <c r="H23" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>n</v>
       </c>
-      <c r="I23" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G23, 字典編碼, 0)), "")</f>
+      <c r="I23" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄙ</v>
       </c>
       <c r="L23" s="29">
@@ -11221,7 +11280,7 @@
         <v>180</v>
       </c>
       <c r="N23" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M23, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄙ</v>
       </c>
       <c r="Q23" s="29" cm="1">
@@ -11232,7 +11291,7 @@
         <v>242</v>
       </c>
       <c r="S23" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R23, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄧ</v>
       </c>
       <c r="U23" s="29" t="s">
@@ -11242,28 +11301,28 @@
         <f t="array" ref="V23" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>21</v>
       </c>
-      <c r="W23" s="184">
+      <c r="W23" s="138">
         <v>6</v>
       </c>
-      <c r="X23" s="155" t="s">
+      <c r="X23" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y23" s="155" t="s">
+      <c r="Y23" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z23" s="155" t="s">
+      <c r="Z23" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA23" s="159" t="s">
+      <c r="AA23" s="114" t="s">
         <v>748</v>
       </c>
-      <c r="AB23" s="175">
+      <c r="AB23" s="122">
         <v>5</v>
       </c>
-      <c r="AC23" s="156">
+      <c r="AC23" s="51">
         <v>5</v>
       </c>
-      <c r="AD23" s="156">
+      <c r="AD23" s="51">
         <v>5</v>
       </c>
       <c r="AE23" s="96" t="s">
@@ -11277,19 +11336,19 @@
       <c r="E24" s="29">
         <v>22</v>
       </c>
-      <c r="F24" s="151">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G24, 字典編碼, 0)), "")</f>
+      <c r="F24" s="108">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G24" s="171">
+      <c r="G24" s="126">
         <v>7</v>
       </c>
-      <c r="H24" s="149">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G24, 字典編碼, 0)), "")</f>
+      <c r="H24" s="57">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I24" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G24, 字典編碼, 0)), "")</f>
+      <c r="I24" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>˫</v>
       </c>
       <c r="L24" s="29">
@@ -11299,7 +11358,7 @@
         <v>7</v>
       </c>
       <c r="N24" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M24, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>˫</v>
       </c>
       <c r="Q24" s="29" cm="1">
@@ -11310,7 +11369,7 @@
         <v>376</v>
       </c>
       <c r="S24" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R24, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄨ</v>
       </c>
       <c r="U24" s="29" t="s">
@@ -11320,28 +11379,28 @@
         <f t="array" ref="V24" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>22</v>
       </c>
-      <c r="W24" s="185" t="s">
+      <c r="W24" s="139" t="s">
         <v>426</v>
       </c>
-      <c r="X24" s="155" t="s">
+      <c r="X24" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y24" s="155" t="s">
+      <c r="Y24" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z24" s="155" t="s">
+      <c r="Z24" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA24" s="152" t="s">
+      <c r="AA24" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="AB24" s="175" t="s">
+      <c r="AB24" s="122" t="s">
         <v>309</v>
       </c>
-      <c r="AC24" s="157" t="s">
+      <c r="AC24" s="113" t="s">
         <v>421</v>
       </c>
-      <c r="AD24" s="157" t="s">
+      <c r="AD24" s="113" t="s">
         <v>309</v>
       </c>
       <c r="AE24" s="96" t="s">
@@ -11352,19 +11411,19 @@
       <c r="E25" s="29">
         <v>23</v>
       </c>
-      <c r="F25" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G25, 字典編碼, 0)), "")</f>
+      <c r="F25" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>i</v>
       </c>
-      <c r="G25" s="171" t="s">
+      <c r="G25" s="126" t="s">
         <v>240</v>
       </c>
-      <c r="H25" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G25, 字典編碼, 0)), "")</f>
+      <c r="H25" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>u</v>
       </c>
-      <c r="I25" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G25, 字典編碼, 0)), "")</f>
+      <c r="I25" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄧ</v>
       </c>
       <c r="L25" s="29">
@@ -11374,7 +11433,7 @@
         <v>240</v>
       </c>
       <c r="N25" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M25, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄧ</v>
       </c>
       <c r="Q25" s="29" cm="1">
@@ -11385,7 +11444,7 @@
         <v>343</v>
       </c>
       <c r="S25" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R25, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㆬ</v>
       </c>
       <c r="U25" s="29" t="s">
@@ -11395,28 +11454,28 @@
         <f t="array" ref="V25" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>23</v>
       </c>
-      <c r="W25" s="185" t="s">
+      <c r="W25" s="139" t="s">
         <v>401</v>
       </c>
-      <c r="X25" s="155" t="s">
+      <c r="X25" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y25" s="155" t="s">
+      <c r="Y25" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z25" s="155" t="s">
+      <c r="Z25" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA25" s="152" t="s">
+      <c r="AA25" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="AB25" s="175" t="s">
+      <c r="AB25" s="122" t="s">
         <v>311</v>
       </c>
-      <c r="AC25" s="157" t="s">
+      <c r="AC25" s="113" t="s">
         <v>455</v>
       </c>
-      <c r="AD25" s="157" t="s">
+      <c r="AD25" s="113" t="s">
         <v>311</v>
       </c>
       <c r="AE25" s="96" t="s">
@@ -11427,19 +11486,19 @@
       <c r="E26" s="29">
         <v>24</v>
       </c>
-      <c r="F26" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G26, 字典編碼, 0)), "")</f>
+      <c r="F26" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>u</v>
       </c>
-      <c r="G26" s="171" t="s">
+      <c r="G26" s="126" t="s">
         <v>242</v>
       </c>
-      <c r="H26" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G26, 字典編碼, 0)), "")</f>
+      <c r="H26" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>j</v>
       </c>
-      <c r="I26" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G26, 字典編碼, 0)), "")</f>
+      <c r="I26" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄨ</v>
       </c>
       <c r="L26" s="29">
@@ -11449,7 +11508,7 @@
         <v>242</v>
       </c>
       <c r="N26" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M26, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄨ</v>
       </c>
       <c r="Q26" s="29" cm="1">
@@ -11460,7 +11519,7 @@
         <v>8</v>
       </c>
       <c r="S26" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R26, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄚ</v>
       </c>
       <c r="U26" s="29" t="s">
@@ -11470,28 +11529,28 @@
         <f t="array" ref="V26" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>24</v>
       </c>
-      <c r="W26" s="185" t="s">
+      <c r="W26" s="139" t="s">
         <v>399</v>
       </c>
-      <c r="X26" s="155" t="s">
+      <c r="X26" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y26" s="155" t="s">
+      <c r="Y26" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z26" s="155" t="s">
+      <c r="Z26" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="AA26" s="152" t="s">
+      <c r="AA26" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="AB26" s="175" t="s">
+      <c r="AB26" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="AC26" s="157" t="s">
+      <c r="AC26" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="AD26" s="157" t="s">
+      <c r="AD26" s="113" t="s">
         <v>180</v>
       </c>
       <c r="AE26" s="96" t="s">
@@ -11502,19 +11561,19 @@
       <c r="E27" s="29">
         <v>25</v>
       </c>
-      <c r="F27" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G27, 字典編碼, 0)), "")</f>
+      <c r="F27" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>M</v>
       </c>
-      <c r="G27" s="171" t="s">
+      <c r="G27" s="126" t="s">
         <v>760</v>
       </c>
-      <c r="H27" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G27, 字典編碼, 0)), "")</f>
+      <c r="H27" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>m</v>
       </c>
-      <c r="I27" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G27, 字典編碼, 0)), "")</f>
+      <c r="I27" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㆬ</v>
       </c>
       <c r="L27" s="29">
@@ -11524,7 +11583,7 @@
         <v>755</v>
       </c>
       <c r="N27" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M27, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㆬ</v>
       </c>
       <c r="Q27" s="29" cm="1">
@@ -11535,7 +11594,7 @@
         <v>240</v>
       </c>
       <c r="S27" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R27, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㆦ</v>
       </c>
       <c r="U27" s="29" t="s">
@@ -11545,28 +11604,28 @@
         <f t="array" ref="V27" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>25</v>
       </c>
-      <c r="W27" s="184">
+      <c r="W27" s="138">
         <v>7</v>
       </c>
-      <c r="X27" s="155" t="s">
+      <c r="X27" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y27" s="155" t="s">
+      <c r="Y27" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z27" s="155" t="s">
+      <c r="Z27" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA27" s="159" t="s">
+      <c r="AA27" s="114" t="s">
         <v>751</v>
       </c>
-      <c r="AB27" s="175">
+      <c r="AB27" s="122">
         <v>7</v>
       </c>
-      <c r="AC27" s="152">
+      <c r="AC27" s="109">
         <v>7</v>
       </c>
-      <c r="AD27" s="152">
+      <c r="AD27" s="109">
         <v>7</v>
       </c>
       <c r="AE27" s="96" t="s">
@@ -11580,19 +11639,19 @@
       <c r="E28" s="29">
         <v>26</v>
       </c>
-      <c r="F28" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G28, 字典編碼, 0)), "")</f>
+      <c r="F28" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>a</v>
       </c>
-      <c r="G28" s="171" t="s">
+      <c r="G28" s="126" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="149">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G28, 字典編碼, 0)), "")</f>
+      <c r="H28" s="57">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I28" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G28, 字典編碼, 0)), "")</f>
+      <c r="I28" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄚ</v>
       </c>
       <c r="K28" s="29" t="s">
@@ -11605,7 +11664,7 @@
         <v>222</v>
       </c>
       <c r="N28" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M28, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄚ</v>
       </c>
       <c r="Q28" s="29" cm="1">
@@ -11616,7 +11675,7 @@
         <v>169</v>
       </c>
       <c r="S28" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R28, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄜ</v>
       </c>
       <c r="U28" s="29" t="s">
@@ -11626,28 +11685,28 @@
         <f t="array" ref="V28" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>26</v>
       </c>
-      <c r="W28" s="185" t="s">
+      <c r="W28" s="139" t="s">
         <v>438</v>
       </c>
-      <c r="X28" s="155" t="s">
+      <c r="X28" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y28" s="155" t="s">
+      <c r="Y28" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z28" s="155" t="s">
+      <c r="Z28" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA28" s="152" t="s">
+      <c r="AA28" s="109" t="s">
         <v>709</v>
       </c>
-      <c r="AB28" s="175" t="s">
+      <c r="AB28" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="AC28" s="152" t="s">
+      <c r="AC28" s="109" t="s">
         <v>240</v>
       </c>
-      <c r="AD28" s="152" t="s">
+      <c r="AD28" s="109" t="s">
         <v>427</v>
       </c>
       <c r="AE28" s="96" t="s">
@@ -11658,19 +11717,19 @@
       <c r="E29" s="29">
         <v>27</v>
       </c>
-      <c r="F29" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G29, 字典編碼, 0)), "")</f>
+      <c r="F29" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>oo</v>
       </c>
-      <c r="G29" s="171" t="s">
+      <c r="G29" s="126" t="s">
         <v>756</v>
       </c>
-      <c r="H29" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G29, 字典編碼, 0)), "")</f>
+      <c r="H29" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>i</v>
       </c>
-      <c r="I29" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G29, 字典編碼, 0)), "")</f>
+      <c r="I29" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㆦ</v>
       </c>
       <c r="K29" s="29" t="s">
@@ -11683,7 +11742,7 @@
         <v>756</v>
       </c>
       <c r="N29" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M29, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㆦ</v>
       </c>
       <c r="Q29" s="29" cm="1">
@@ -11694,7 +11753,7 @@
         <v>430</v>
       </c>
       <c r="S29" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R29, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄝ</v>
       </c>
       <c r="U29" s="29" t="s">
@@ -11704,28 +11763,28 @@
         <f t="array" ref="V29" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>27</v>
       </c>
-      <c r="W29" s="185" t="s">
+      <c r="W29" s="139" t="s">
         <v>402</v>
       </c>
-      <c r="X29" s="155" t="s">
+      <c r="X29" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y29" s="155" t="s">
+      <c r="Y29" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z29" s="155" t="s">
+      <c r="Z29" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA29" s="152" t="s">
+      <c r="AA29" s="109" t="s">
         <v>711</v>
       </c>
-      <c r="AB29" s="175" t="s">
+      <c r="AB29" s="122" t="s">
         <v>242</v>
       </c>
-      <c r="AC29" s="152" t="s">
+      <c r="AC29" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="AD29" s="152" t="s">
+      <c r="AD29" s="109" t="s">
         <v>242</v>
       </c>
       <c r="AE29" s="96" t="s">
@@ -11736,19 +11795,19 @@
       <c r="E30" s="29">
         <v>28</v>
       </c>
-      <c r="F30" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G30, 字典編碼, 0)), "")</f>
+      <c r="F30" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>oo</v>
       </c>
-      <c r="G30" s="171" t="s">
+      <c r="G30" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="H30" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G30, 字典編碼, 0)), "")</f>
+      <c r="H30" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>i</v>
       </c>
-      <c r="I30" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G30, 字典編碼, 0)), "")</f>
+      <c r="I30" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㆦ</v>
       </c>
       <c r="L30" s="29">
@@ -11758,7 +11817,7 @@
         <v>226</v>
       </c>
       <c r="N30" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M30, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㆦ</v>
       </c>
       <c r="Q30" s="29" cm="1">
@@ -11769,7 +11828,7 @@
         <v>226</v>
       </c>
       <c r="S30" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R30, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>Ｐ</v>
       </c>
       <c r="U30" s="29" t="s">
@@ -11779,28 +11838,28 @@
         <f t="array" ref="V30" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>28</v>
       </c>
-      <c r="W30" s="186" t="s">
+      <c r="W30" s="140" t="s">
         <v>395</v>
       </c>
-      <c r="X30" s="155" t="s">
+      <c r="X30" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y30" s="155" t="s">
+      <c r="Y30" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z30" s="155" t="s">
+      <c r="Z30" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA30" s="152" t="s">
+      <c r="AA30" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="AB30" s="175" t="s">
+      <c r="AB30" s="122" t="s">
         <v>762</v>
       </c>
-      <c r="AC30" s="152" t="s">
+      <c r="AC30" s="109" t="s">
         <v>718</v>
       </c>
-      <c r="AD30" s="152" t="s">
+      <c r="AD30" s="109" t="s">
         <v>718</v>
       </c>
       <c r="AE30" s="96" t="s">
@@ -11814,19 +11873,19 @@
       <c r="E31" s="29">
         <v>29</v>
       </c>
-      <c r="F31" s="151" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(拼音字母, MATCH($G31, 字典編碼, 0)), "")</f>
+      <c r="F31" s="108" t="str">
+        <f t="shared" si="0"/>
         <v>e</v>
       </c>
-      <c r="G31" s="171" t="s">
+      <c r="G31" s="126" t="s">
         <v>227</v>
       </c>
-      <c r="H31" s="149" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(鍵盤位置, MATCH($G31, 字典編碼, 0)), "")</f>
+      <c r="H31" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>,</v>
       </c>
-      <c r="I31" s="150" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($G31, 字典編碼, 0)), "")</f>
+      <c r="I31" s="69" t="str">
+        <f t="shared" si="2"/>
         <v>ㄝ</v>
       </c>
       <c r="L31" s="29">
@@ -11836,7 +11895,7 @@
         <v>227</v>
       </c>
       <c r="N31" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M31, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄝ</v>
       </c>
       <c r="Q31" s="29" cm="1">
@@ -11847,7 +11906,7 @@
         <v>355</v>
       </c>
       <c r="S31" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R31, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>Ｌ</v>
       </c>
       <c r="U31" s="29" t="s">
@@ -11857,28 +11916,28 @@
         <f t="array" ref="V31" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>29</v>
       </c>
-      <c r="W31" s="184">
+      <c r="W31" s="138">
         <v>8</v>
       </c>
-      <c r="X31" s="155" t="s">
+      <c r="X31" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y31" s="155" t="s">
+      <c r="Y31" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z31" s="155" t="s">
+      <c r="Z31" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA31" s="152" t="s">
+      <c r="AA31" s="109" t="s">
         <v>703</v>
       </c>
-      <c r="AB31" s="175" t="s">
+      <c r="AB31" s="122" t="s">
         <v>415</v>
       </c>
-      <c r="AC31" s="152" t="s">
+      <c r="AC31" s="109" t="s">
         <v>415</v>
       </c>
-      <c r="AD31" s="152" t="s">
+      <c r="AD31" s="109" t="s">
         <v>415</v>
       </c>
       <c r="AE31" s="96" t="s">
@@ -11889,10 +11948,10 @@
       <c r="E32" s="29">
         <v>30</v>
       </c>
-      <c r="F32" s="151"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="150"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="69"/>
       <c r="L32" s="29">
         <v>30</v>
       </c>
@@ -11900,7 +11959,7 @@
         <v>757</v>
       </c>
       <c r="N32" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M32, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄫ</v>
       </c>
       <c r="Q32" s="29" cm="1">
@@ -11911,7 +11970,7 @@
         <v>436</v>
       </c>
       <c r="S32" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R32, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄥ</v>
       </c>
       <c r="U32" s="29" t="s">
@@ -11921,28 +11980,28 @@
         <f t="array" ref="V32" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>30</v>
       </c>
-      <c r="W32" s="185" t="s">
+      <c r="W32" s="139" t="s">
         <v>427</v>
       </c>
-      <c r="X32" s="155" t="s">
+      <c r="X32" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y32" s="155" t="s">
+      <c r="Y32" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z32" s="155" t="s">
+      <c r="Z32" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA32" s="152" t="s">
+      <c r="AA32" s="109" t="s">
         <v>705</v>
       </c>
-      <c r="AB32" s="175" t="s">
+      <c r="AB32" s="122" t="s">
         <v>715</v>
       </c>
-      <c r="AC32" s="152" t="s">
+      <c r="AC32" s="109" t="s">
         <v>334</v>
       </c>
-      <c r="AD32" s="152" t="s">
+      <c r="AD32" s="109" t="s">
         <v>715</v>
       </c>
       <c r="AE32" s="96" t="s">
@@ -11953,10 +12012,10 @@
       <c r="E33" s="29">
         <v>31</v>
       </c>
-      <c r="F33" s="151"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="150"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="69"/>
       <c r="L33" s="29">
         <v>31</v>
       </c>
@@ -11964,7 +12023,7 @@
         <v>378</v>
       </c>
       <c r="N33" s="50" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($M33, 字典編碼, 0)), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄋ</v>
       </c>
       <c r="Q33" s="29" cm="1">
@@ -11975,7 +12034,7 @@
         <v>166</v>
       </c>
       <c r="S33" s="61" t="str">
-        <f xml:space="preserve"> IFERROR(  INDEX(方音符號, MATCH($R33, 鍵盤位置, 0)), "")</f>
+        <f t="shared" si="4"/>
         <v>ㄣ</v>
       </c>
       <c r="U33" s="29" t="s">
@@ -11985,28 +12044,28 @@
         <f t="array" ref="V33" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>31</v>
       </c>
-      <c r="W33" s="185" t="s">
+      <c r="W33" s="139" t="s">
         <v>400</v>
       </c>
-      <c r="X33" s="155" t="s">
+      <c r="X33" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y33" s="155" t="s">
+      <c r="Y33" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z33" s="155" t="s">
+      <c r="Z33" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA33" s="152" t="s">
+      <c r="AA33" s="109" t="s">
         <v>707</v>
       </c>
-      <c r="AB33" s="175" t="s">
+      <c r="AB33" s="122" t="s">
         <v>428</v>
       </c>
-      <c r="AC33" s="152" t="s">
+      <c r="AC33" s="109" t="s">
         <v>428</v>
       </c>
-      <c r="AD33" s="152" t="s">
+      <c r="AD33" s="109" t="s">
         <v>428</v>
       </c>
       <c r="AE33" s="96" t="s">
@@ -12017,10 +12076,10 @@
       <c r="E34" s="29">
         <v>32</v>
       </c>
-      <c r="F34" s="151"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="150"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="69"/>
       <c r="N34" s="29"/>
       <c r="S34" s="52"/>
       <c r="U34" s="29" t="s">
@@ -12030,28 +12089,28 @@
         <f t="array" ref="V34" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>32</v>
       </c>
-      <c r="W34" s="186" t="s">
+      <c r="W34" s="140" t="s">
         <v>431</v>
       </c>
-      <c r="X34" s="155" t="s">
+      <c r="X34" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Y34" s="155" t="s">
+      <c r="Y34" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z34" s="155" t="s">
+      <c r="Z34" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA34" s="152" t="s">
+      <c r="AA34" s="109" t="s">
         <v>688</v>
       </c>
-      <c r="AB34" s="175" t="s">
+      <c r="AB34" s="122" t="s">
         <v>419</v>
       </c>
-      <c r="AC34" s="152" t="s">
+      <c r="AC34" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="AD34" s="152" t="s">
+      <c r="AD34" s="109" t="s">
         <v>419</v>
       </c>
       <c r="AE34" s="96" t="s">
@@ -12062,10 +12121,10 @@
       <c r="E35" s="29">
         <v>33</v>
       </c>
-      <c r="F35" s="151"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="150"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="69"/>
       <c r="N35" s="29"/>
       <c r="S35" s="52"/>
       <c r="U35" s="29" t="s">
@@ -12075,22 +12134,22 @@
         <f t="array" ref="V35" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>33</v>
       </c>
-      <c r="W35" s="184">
+      <c r="W35" s="138">
         <v>9</v>
       </c>
-      <c r="X35" s="160" t="s">
+      <c r="X35" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Y35" s="160" t="s">
+      <c r="Y35" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Z35" s="160" t="s">
+      <c r="Z35" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="AA35" s="152"/>
-      <c r="AB35" s="178"/>
-      <c r="AC35" s="153"/>
-      <c r="AD35" s="153"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="132"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
       <c r="AE35" s="96" t="s">
         <v>723</v>
       </c>
@@ -12099,10 +12158,10 @@
       <c r="E36" s="29">
         <v>34</v>
       </c>
-      <c r="F36" s="151"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="150"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="69"/>
       <c r="N36" s="29"/>
       <c r="S36" s="52"/>
       <c r="U36" s="29" t="s">
@@ -12112,28 +12171,28 @@
         <f t="array" ref="V36" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>34</v>
       </c>
-      <c r="W36" s="185" t="s">
+      <c r="W36" s="139" t="s">
         <v>428</v>
       </c>
-      <c r="X36" s="155" t="s">
+      <c r="X36" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="Y36" s="160" t="s">
+      <c r="Y36" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Z36" s="155" t="s">
+      <c r="Z36" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA36" s="161" t="s">
+      <c r="AA36" s="116" t="s">
         <v>729</v>
       </c>
-      <c r="AB36" s="179" t="s">
+      <c r="AB36" s="133" t="s">
         <v>721</v>
       </c>
-      <c r="AC36" s="162" t="s">
+      <c r="AC36" s="117" t="s">
         <v>721</v>
       </c>
-      <c r="AD36" s="162" t="s">
+      <c r="AD36" s="117" t="s">
         <v>721</v>
       </c>
       <c r="AE36" s="96" t="s">
@@ -12147,10 +12206,10 @@
       <c r="E37" s="29">
         <v>35</v>
       </c>
-      <c r="F37" s="151"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="150"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="69"/>
       <c r="N37" s="29"/>
       <c r="S37" s="52"/>
       <c r="U37" s="29" t="s">
@@ -12160,28 +12219,28 @@
         <f t="array" ref="V37" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>35</v>
       </c>
-      <c r="W37" s="185" t="s">
+      <c r="W37" s="139" t="s">
         <v>429</v>
       </c>
-      <c r="X37" s="155" t="s">
+      <c r="X37" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="Y37" s="160" t="s">
+      <c r="Y37" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Z37" s="155" t="s">
+      <c r="Z37" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA37" s="161" t="s">
+      <c r="AA37" s="116" t="s">
         <v>716</v>
       </c>
-      <c r="AB37" s="179" t="s">
+      <c r="AB37" s="133" t="s">
         <v>722</v>
       </c>
-      <c r="AC37" s="162" t="s">
+      <c r="AC37" s="117" t="s">
         <v>722</v>
       </c>
-      <c r="AD37" s="162" t="s">
+      <c r="AD37" s="117" t="s">
         <v>722</v>
       </c>
       <c r="AE37" s="96" t="s">
@@ -12204,28 +12263,28 @@
         <f t="array" ref="V38" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>36</v>
       </c>
-      <c r="W38" s="186" t="s">
+      <c r="W38" s="140" t="s">
         <v>437</v>
       </c>
-      <c r="X38" s="155" t="s">
+      <c r="X38" s="112" t="s">
         <v>378</v>
       </c>
-      <c r="Y38" s="155" t="s">
+      <c r="Y38" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z38" s="155" t="s">
+      <c r="Z38" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA38" s="152" t="s">
+      <c r="AA38" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="AB38" s="176" t="s">
+      <c r="AB38" s="130" t="s">
         <v>725</v>
       </c>
-      <c r="AC38" s="157" t="s">
+      <c r="AC38" s="113" t="s">
         <v>349</v>
       </c>
-      <c r="AD38" s="157" t="s">
+      <c r="AD38" s="113" t="s">
         <v>725</v>
       </c>
       <c r="AE38" s="96" t="s">
@@ -12248,24 +12307,24 @@
         <f t="array" ref="V39" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>37</v>
       </c>
-      <c r="W39" s="184">
+      <c r="W39" s="138">
         <v>0</v>
       </c>
-      <c r="X39" s="160" t="s">
+      <c r="X39" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Y39" s="160" t="s">
+      <c r="Y39" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Z39" s="160" t="s">
+      <c r="Z39" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="AA39" s="154"/>
-      <c r="AB39" s="177" t="s">
+      <c r="AA39" s="111"/>
+      <c r="AB39" s="131" t="s">
         <v>714</v>
       </c>
-      <c r="AC39" s="154"/>
-      <c r="AD39" s="154"/>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="111"/>
       <c r="AE39" s="96"/>
     </row>
     <row r="40" spans="5:33" ht="36">
@@ -12281,28 +12340,28 @@
         <f t="array" ref="V40" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>38</v>
       </c>
-      <c r="W40" s="185" t="s">
+      <c r="W40" s="139" t="s">
         <v>391</v>
       </c>
-      <c r="X40" s="160" t="s">
+      <c r="X40" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Y40" s="155" t="s">
+      <c r="Y40" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="Z40" s="155" t="s">
+      <c r="Z40" s="112" t="s">
         <v>442</v>
       </c>
-      <c r="AA40" s="152" t="s">
+      <c r="AA40" s="109" t="s">
         <v>713</v>
       </c>
-      <c r="AB40" s="175" t="s">
+      <c r="AB40" s="122" t="s">
         <v>687</v>
       </c>
-      <c r="AC40" s="152" t="s">
+      <c r="AC40" s="109" t="s">
         <v>687</v>
       </c>
-      <c r="AD40" s="152" t="s">
+      <c r="AD40" s="109" t="s">
         <v>687</v>
       </c>
       <c r="AE40" s="96" t="s">
@@ -12325,24 +12384,24 @@
         <f t="array" ref="V41" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>39</v>
       </c>
-      <c r="W41" s="185" t="s">
+      <c r="W41" s="139" t="s">
         <v>433</v>
       </c>
-      <c r="X41" s="160" t="s">
+      <c r="X41" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Y41" s="160" t="s">
+      <c r="Y41" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Z41" s="160" t="s">
+      <c r="Z41" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="AA41" s="154"/>
-      <c r="AB41" s="177" t="s">
+      <c r="AA41" s="111"/>
+      <c r="AB41" s="131" t="s">
         <v>714</v>
       </c>
-      <c r="AC41" s="154"/>
-      <c r="AD41" s="154"/>
+      <c r="AC41" s="111"/>
+      <c r="AD41" s="111"/>
       <c r="AE41" s="96"/>
     </row>
     <row r="42" spans="5:33" ht="36">
@@ -12355,24 +12414,24 @@
         <f t="array" ref="V42" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>40</v>
       </c>
-      <c r="W42" s="186" t="s">
+      <c r="W42" s="140" t="s">
         <v>435</v>
       </c>
-      <c r="X42" s="160" t="s">
+      <c r="X42" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Y42" s="160" t="s">
+      <c r="Y42" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Z42" s="160" t="s">
+      <c r="Z42" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="AA42" s="154"/>
-      <c r="AB42" s="177" t="s">
+      <c r="AA42" s="111"/>
+      <c r="AB42" s="131" t="s">
         <v>714</v>
       </c>
-      <c r="AC42" s="154"/>
-      <c r="AD42" s="154"/>
+      <c r="AC42" s="111"/>
+      <c r="AD42" s="111"/>
       <c r="AE42" s="96"/>
     </row>
     <row r="43" spans="5:33" ht="36">
@@ -12385,20 +12444,20 @@
         <f t="array" ref="V43" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>41</v>
       </c>
-      <c r="W43" s="185"/>
-      <c r="X43" s="160" t="s">
+      <c r="W43" s="139"/>
+      <c r="X43" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Y43" s="160" t="s">
+      <c r="Y43" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Z43" s="160" t="s">
+      <c r="Z43" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="AA43" s="152"/>
-      <c r="AB43" s="180"/>
-      <c r="AC43" s="154"/>
-      <c r="AD43" s="154"/>
+      <c r="AA43" s="109"/>
+      <c r="AB43" s="134"/>
+      <c r="AC43" s="111"/>
+      <c r="AD43" s="111"/>
       <c r="AE43" s="96"/>
     </row>
     <row r="44" spans="5:33" ht="36">
@@ -12411,20 +12470,20 @@
         <f t="array" ref="V44" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>42</v>
       </c>
-      <c r="W44" s="185"/>
-      <c r="X44" s="160" t="s">
+      <c r="W44" s="139"/>
+      <c r="X44" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Y44" s="160" t="s">
+      <c r="Y44" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="Z44" s="160" t="s">
+      <c r="Z44" s="115" t="s">
         <v>687</v>
       </c>
-      <c r="AA44" s="152"/>
-      <c r="AB44" s="180"/>
-      <c r="AC44" s="154"/>
-      <c r="AD44" s="154"/>
+      <c r="AA44" s="109"/>
+      <c r="AB44" s="134"/>
+      <c r="AC44" s="111"/>
+      <c r="AD44" s="111"/>
       <c r="AE44" s="96"/>
     </row>
     <row r="45" spans="5:33" ht="36">
@@ -12434,18 +12493,18 @@
         <f t="array" ref="V45" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>43</v>
       </c>
-      <c r="W45" s="187"/>
-      <c r="X45" s="163" t="s">
+      <c r="W45" s="141"/>
+      <c r="X45" s="118" t="s">
         <v>687</v>
       </c>
-      <c r="Y45" s="163" t="s">
+      <c r="Y45" s="118" t="s">
         <v>687</v>
       </c>
-      <c r="Z45" s="163" t="s">
+      <c r="Z45" s="118" t="s">
         <v>687</v>
       </c>
       <c r="AA45" s="97"/>
-      <c r="AB45" s="181"/>
+      <c r="AB45" s="135"/>
       <c r="AC45" s="99"/>
       <c r="AD45" s="99"/>
       <c r="AE45" s="98"/>
@@ -12463,7 +12522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB1E6DA-E57C-4AF7-9BF2-B8413542F08E}">
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
@@ -12547,19 +12606,19 @@
       <c r="AA2" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="AC2" s="191" t="s">
+      <c r="AC2" s="144" t="s">
         <v>764</v>
       </c>
-      <c r="AD2" s="192" t="s">
+      <c r="AD2" s="145" t="s">
         <v>765</v>
       </c>
-      <c r="AE2" s="193" t="s">
+      <c r="AE2" s="146" t="s">
         <v>766</v>
       </c>
-      <c r="AF2" s="194" t="s">
+      <c r="AF2" s="147" t="s">
         <v>767</v>
       </c>
-      <c r="AG2" s="195" t="s">
+      <c r="AG2" s="148" t="s">
         <v>768</v>
       </c>
     </row>
@@ -12574,19 +12633,19 @@
       <c r="E3" s="29">
         <v>1</v>
       </c>
-      <c r="F3" s="188" t="str">
+      <c r="F3" s="142" t="str">
         <f xml:space="preserve"> INDEX($AE$3:$AE$57, MATCH($H3, $AG$3:$AG$57, 0))</f>
         <v>p</v>
       </c>
-      <c r="G3" s="189" t="str">
+      <c r="G3" s="109" t="str">
         <f xml:space="preserve"> MID($A$3, $E3,1)</f>
         <v>p</v>
       </c>
-      <c r="H3" s="189" t="str">
+      <c r="H3" s="109" t="str">
         <f xml:space="preserve"> MID($A$4, $E3,1)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="190" t="str">
+      <c r="I3" s="143" t="str">
         <f xml:space="preserve"> INDEX($AD$3:$AD$57, MATCH($H3, $AG$3:$AG$57, 0))</f>
         <v>ㄅ</v>
       </c>
@@ -12627,19 +12686,19 @@
       <c r="AA3" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="AC3" s="196">
+      <c r="AC3" s="149">
         <v>1</v>
       </c>
-      <c r="AD3" s="197" t="s">
+      <c r="AD3" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="AE3" s="198" t="s">
+      <c r="AE3" s="151" t="s">
         <v>166</v>
       </c>
-      <c r="AF3" s="199" t="s">
+      <c r="AF3" s="152" t="s">
         <v>771</v>
       </c>
-      <c r="AG3" s="200" t="s">
+      <c r="AG3" s="153" t="s">
         <v>403</v>
       </c>
     </row>
@@ -12654,19 +12713,19 @@
       <c r="E4" s="29">
         <v>2</v>
       </c>
-      <c r="F4" s="188" t="str">
+      <c r="F4" s="142" t="str">
         <f t="shared" ref="F4:F12" si="4" xml:space="preserve"> INDEX($AE$3:$AE$57, MATCH($H4, $AG$3:$AG$57, 0))</f>
         <v>b</v>
       </c>
-      <c r="G4" s="189" t="str">
+      <c r="G4" s="109" t="str">
         <f t="shared" ref="G4:G37" si="5" xml:space="preserve"> MID($A$3, $E4,1)</f>
         <v>P</v>
       </c>
-      <c r="H4" s="189" t="str">
+      <c r="H4" s="109" t="str">
         <f t="shared" ref="H4:H37" si="6" xml:space="preserve"> MID($A$4, $E4,1)</f>
         <v>q</v>
       </c>
-      <c r="I4" s="190" t="str">
+      <c r="I4" s="143" t="str">
         <f t="shared" ref="I4:I37" si="7" xml:space="preserve"> INDEX($AD$3:$AD$57, MATCH($H4, $AG$3:$AG$57, 0))</f>
         <v>ㆠ</v>
       </c>
@@ -12707,20 +12766,20 @@
       <c r="AA4" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="AC4" s="196">
+      <c r="AC4" s="149">
         <f>AC3+1</f>
         <v>2</v>
       </c>
-      <c r="AD4" s="197" t="s">
+      <c r="AD4" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="AE4" s="198" t="s">
+      <c r="AE4" s="151" t="s">
         <v>770</v>
       </c>
-      <c r="AF4" s="199" t="s">
+      <c r="AF4" s="152" t="s">
         <v>834</v>
       </c>
-      <c r="AG4" s="200" t="s">
+      <c r="AG4" s="153" t="s">
         <v>222</v>
       </c>
     </row>
@@ -12728,19 +12787,19 @@
       <c r="E5" s="29">
         <v>3</v>
       </c>
-      <c r="F5" s="188" t="str">
+      <c r="F5" s="142" t="str">
         <f t="shared" si="4"/>
         <v>ph</v>
       </c>
-      <c r="G5" s="189" t="str">
+      <c r="G5" s="109" t="str">
         <f t="shared" si="5"/>
         <v>m</v>
       </c>
-      <c r="H5" s="189" t="str">
+      <c r="H5" s="109" t="str">
         <f t="shared" si="6"/>
         <v>a</v>
       </c>
-      <c r="I5" s="190" t="str">
+      <c r="I5" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄆ</v>
       </c>
@@ -12781,20 +12840,20 @@
       <c r="AA5" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="AC5" s="196">
+      <c r="AC5" s="149">
         <f t="shared" ref="AC5:AC57" si="8">AC4+1</f>
         <v>3</v>
       </c>
-      <c r="AD5" s="197" t="s">
+      <c r="AD5" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="AE5" s="198" t="s">
+      <c r="AE5" s="151" t="s">
         <v>769</v>
       </c>
-      <c r="AF5" s="201" t="s">
+      <c r="AF5" s="154" t="s">
         <v>769</v>
       </c>
-      <c r="AG5" s="200" t="s">
+      <c r="AG5" s="153" t="s">
         <v>394</v>
       </c>
     </row>
@@ -12805,19 +12864,19 @@
       <c r="E6" s="29">
         <v>4</v>
       </c>
-      <c r="F6" s="188" t="str">
+      <c r="F6" s="142" t="str">
         <f t="shared" si="4"/>
         <v>k4</v>
       </c>
-      <c r="G6" s="189" t="str">
+      <c r="G6" s="109" t="str">
         <f t="shared" si="5"/>
         <v>b</v>
       </c>
-      <c r="H6" s="189" t="str">
+      <c r="H6" s="109" t="str">
         <f t="shared" si="6"/>
         <v>z</v>
       </c>
-      <c r="I6" s="190" t="str">
+      <c r="I6" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆻ</v>
       </c>
@@ -12858,20 +12917,20 @@
       <c r="AA6" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="AC6" s="196">
+      <c r="AC6" s="149">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AD6" s="197" t="s">
+      <c r="AD6" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="AE6" s="198" t="s">
+      <c r="AE6" s="151" t="s">
         <v>772</v>
       </c>
-      <c r="AF6" s="199" t="s">
+      <c r="AF6" s="152" t="s">
         <v>772</v>
       </c>
-      <c r="AG6" s="200" t="s">
+      <c r="AG6" s="153" t="s">
         <v>404</v>
       </c>
     </row>
@@ -12886,19 +12945,19 @@
       <c r="E7" s="29">
         <v>5</v>
       </c>
-      <c r="F7" s="188" t="str">
+      <c r="F7" s="142" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="G7" s="189" t="str">
+      <c r="G7" s="109" t="str">
         <f t="shared" si="5"/>
         <v>t</v>
       </c>
-      <c r="H7" s="189" t="str">
+      <c r="H7" s="109" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="I7" s="190" t="str">
+      <c r="I7" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄇ</v>
       </c>
@@ -12939,20 +12998,20 @@
       <c r="AA7" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="AC7" s="202">
+      <c r="AC7" s="155">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="AD7" s="203" t="s">
+      <c r="AD7" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="AE7" s="204" t="s">
+      <c r="AE7" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="AF7" s="205" t="s">
+      <c r="AF7" s="158" t="s">
         <v>773</v>
       </c>
-      <c r="AG7" s="206" t="s">
+      <c r="AG7" s="159" t="s">
         <v>382</v>
       </c>
     </row>
@@ -12967,19 +13026,19 @@
       <c r="E8" s="29">
         <v>6</v>
       </c>
-      <c r="F8" s="188" t="str">
+      <c r="F8" s="142" t="str">
         <f t="shared" si="4"/>
         <v>t</v>
       </c>
-      <c r="G8" s="189" t="str">
+      <c r="G8" s="109" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="H8" s="189" t="str">
+      <c r="H8" s="109" t="str">
         <f t="shared" si="6"/>
         <v>w</v>
       </c>
-      <c r="I8" s="190" t="str">
+      <c r="I8" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄉ</v>
       </c>
@@ -13020,20 +13079,20 @@
       <c r="AA8" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="AC8" s="207">
+      <c r="AC8" s="160">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="AD8" s="197" t="s">
+      <c r="AD8" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="AE8" s="198" t="s">
+      <c r="AE8" s="151" t="s">
         <v>353</v>
       </c>
-      <c r="AF8" s="199" t="s">
+      <c r="AF8" s="152" t="s">
         <v>835</v>
       </c>
-      <c r="AG8" s="200" t="s">
+      <c r="AG8" s="153" t="s">
         <v>180</v>
       </c>
     </row>
@@ -13041,19 +13100,19 @@
       <c r="E9" s="29">
         <v>7</v>
       </c>
-      <c r="F9" s="188" t="str">
+      <c r="F9" s="142" t="str">
         <f t="shared" si="4"/>
         <v>th</v>
       </c>
-      <c r="G9" s="189" t="str">
+      <c r="G9" s="109" t="str">
         <f t="shared" si="5"/>
         <v>n</v>
       </c>
-      <c r="H9" s="189" t="str">
+      <c r="H9" s="109" t="str">
         <f t="shared" si="6"/>
         <v>s</v>
       </c>
-      <c r="I9" s="190" t="str">
+      <c r="I9" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄊ</v>
       </c>
@@ -13094,20 +13153,20 @@
       <c r="AA9" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="AC9" s="207">
+      <c r="AC9" s="160">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="AD9" s="197" t="s">
+      <c r="AD9" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="AE9" s="198" t="s">
+      <c r="AE9" s="151" t="s">
         <v>354</v>
       </c>
-      <c r="AF9" s="199" t="s">
+      <c r="AF9" s="152" t="s">
         <v>354</v>
       </c>
-      <c r="AG9" s="200" t="s">
+      <c r="AG9" s="153" t="s">
         <v>405</v>
       </c>
     </row>
@@ -13115,19 +13174,19 @@
       <c r="E10" s="29">
         <v>8</v>
       </c>
-      <c r="F10" s="188" t="str">
+      <c r="F10" s="142" t="str">
         <f t="shared" si="4"/>
         <v>n</v>
       </c>
-      <c r="G10" s="189" t="str">
+      <c r="G10" s="109" t="str">
         <f t="shared" si="5"/>
         <v>d</v>
       </c>
-      <c r="H10" s="189" t="str">
+      <c r="H10" s="109" t="str">
         <f t="shared" si="6"/>
         <v>x</v>
       </c>
-      <c r="I10" s="190" t="str">
+      <c r="I10" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄋ</v>
       </c>
@@ -13168,20 +13227,20 @@
       <c r="AA10" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="AC10" s="208">
+      <c r="AC10" s="161">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="AD10" s="209" t="s">
+      <c r="AD10" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="AE10" s="210" t="s">
+      <c r="AE10" s="163" t="s">
         <v>355</v>
       </c>
-      <c r="AF10" s="211" t="s">
+      <c r="AF10" s="164" t="s">
         <v>774</v>
       </c>
-      <c r="AG10" s="212" t="s">
+      <c r="AG10" s="165" t="s">
         <v>227</v>
       </c>
     </row>
@@ -13192,19 +13251,19 @@
       <c r="E11" s="29">
         <v>9</v>
       </c>
-      <c r="F11" s="188" t="str">
+      <c r="F11" s="142" t="str">
         <f t="shared" si="4"/>
         <v>l</v>
       </c>
-      <c r="G11" s="189" t="str">
+      <c r="G11" s="109" t="str">
         <f t="shared" si="5"/>
         <v>k</v>
       </c>
-      <c r="H11" s="189" t="str">
+      <c r="H11" s="109" t="str">
         <f t="shared" si="6"/>
         <v>e</v>
       </c>
-      <c r="I11" s="190" t="str">
+      <c r="I11" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄌ</v>
       </c>
@@ -13245,20 +13304,20 @@
       <c r="AA11" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="AC11" s="196">
+      <c r="AC11" s="149">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="AD11" s="197" t="s">
+      <c r="AD11" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="AE11" s="198" t="s">
+      <c r="AE11" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="AF11" s="199" t="s">
+      <c r="AF11" s="152" t="s">
         <v>778</v>
       </c>
-      <c r="AG11" s="200" t="s">
+      <c r="AG11" s="153" t="s">
         <v>776</v>
       </c>
     </row>
@@ -13273,19 +13332,19 @@
       <c r="E12" s="29">
         <v>10</v>
       </c>
-      <c r="F12" s="188" t="str">
+      <c r="F12" s="142" t="str">
         <f t="shared" si="4"/>
         <v>kh</v>
       </c>
-      <c r="G12" s="189" t="str">
+      <c r="G12" s="109" t="str">
         <f t="shared" si="5"/>
         <v>K</v>
       </c>
-      <c r="H12" s="189" t="str">
+      <c r="H12" s="109" t="str">
         <f t="shared" si="6"/>
         <v>d</v>
       </c>
-      <c r="I12" s="190" t="str">
+      <c r="I12" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄎ</v>
       </c>
@@ -13326,20 +13385,20 @@
       <c r="AA12" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="AC12" s="196">
+      <c r="AC12" s="149">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="AD12" s="197" t="s">
+      <c r="AD12" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="AE12" s="198" t="s">
+      <c r="AE12" s="151" t="s">
         <v>777</v>
       </c>
-      <c r="AF12" s="199" t="s">
+      <c r="AF12" s="152" t="s">
         <v>836</v>
       </c>
-      <c r="AG12" s="200" t="s">
+      <c r="AG12" s="153" t="s">
         <v>326</v>
       </c>
     </row>
@@ -13354,19 +13413,19 @@
       <c r="E13" s="29">
         <v>11</v>
       </c>
-      <c r="F13" s="188" t="str">
-        <f t="shared" ref="F4:F37" si="9" xml:space="preserve"> INDEX($AE$3:$AE$57, MATCH($H13, $AG$3:$AG$57, 0))</f>
+      <c r="F13" s="142" t="str">
+        <f t="shared" ref="F13:F37" si="9" xml:space="preserve"> INDEX($AE$3:$AE$57, MATCH($H13, $AG$3:$AG$57, 0))</f>
         <v>ng</v>
       </c>
-      <c r="G13" s="189" t="str">
+      <c r="G13" s="109" t="str">
         <f t="shared" si="5"/>
         <v>h</v>
       </c>
-      <c r="H13" s="189" t="str">
+      <c r="H13" s="109" t="str">
         <f t="shared" si="6"/>
         <v>c</v>
       </c>
-      <c r="I13" s="190" t="str">
+      <c r="I13" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄫ</v>
       </c>
@@ -13407,20 +13466,20 @@
       <c r="AA13" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="AC13" s="196">
+      <c r="AC13" s="149">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="AD13" s="197" t="s">
+      <c r="AD13" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="AE13" s="198" t="s">
+      <c r="AE13" s="151" t="s">
         <v>775</v>
       </c>
-      <c r="AF13" s="199" t="s">
+      <c r="AF13" s="152" t="s">
         <v>779</v>
       </c>
-      <c r="AG13" s="200" t="s">
+      <c r="AG13" s="153" t="s">
         <v>306</v>
       </c>
     </row>
@@ -13428,19 +13487,19 @@
       <c r="E14" s="29">
         <v>12</v>
       </c>
-      <c r="F14" s="188" t="str">
+      <c r="F14" s="142" t="str">
         <f t="shared" si="9"/>
         <v>tsi</v>
       </c>
-      <c r="G14" s="189" t="str">
+      <c r="G14" s="109" t="str">
         <f t="shared" si="5"/>
         <v>j</v>
       </c>
-      <c r="H14" s="189" t="str">
+      <c r="H14" s="109" t="str">
         <f t="shared" si="6"/>
         <v>r</v>
       </c>
-      <c r="I14" s="190" t="str">
+      <c r="I14" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄐ</v>
       </c>
@@ -13481,20 +13540,20 @@
       <c r="AA14" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AC14" s="196">
+      <c r="AC14" s="149">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="AD14" s="197" t="s">
+      <c r="AD14" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="AE14" s="198" t="s">
+      <c r="AE14" s="151" t="s">
         <v>780</v>
       </c>
-      <c r="AF14" s="201" t="s">
+      <c r="AF14" s="154" t="s">
         <v>781</v>
       </c>
-      <c r="AG14" s="200" t="s">
+      <c r="AG14" s="153" t="s">
         <v>309</v>
       </c>
     </row>
@@ -13502,19 +13561,19 @@
       <c r="E15" s="29">
         <v>13</v>
       </c>
-      <c r="F15" s="188" t="str">
+      <c r="F15" s="142" t="str">
         <f t="shared" si="9"/>
         <v>ji</v>
       </c>
-      <c r="G15" s="189" t="str">
+      <c r="G15" s="109" t="str">
         <f t="shared" si="5"/>
         <v>J</v>
       </c>
-      <c r="H15" s="189" t="str">
+      <c r="H15" s="109" t="str">
         <f t="shared" si="6"/>
         <v>f</v>
       </c>
-      <c r="I15" s="190" t="str">
+      <c r="I15" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆢ</v>
       </c>
@@ -13555,20 +13614,20 @@
       <c r="AA15" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="AC15" s="202">
+      <c r="AC15" s="155">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="AD15" s="203" t="s">
+      <c r="AD15" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="AE15" s="204" t="s">
+      <c r="AE15" s="157" t="s">
         <v>421</v>
       </c>
-      <c r="AF15" s="205" t="s">
+      <c r="AF15" s="158" t="s">
         <v>782</v>
       </c>
-      <c r="AG15" s="206" t="s">
+      <c r="AG15" s="159" t="s">
         <v>442</v>
       </c>
     </row>
@@ -13576,19 +13635,19 @@
       <c r="E16" s="29">
         <v>14</v>
       </c>
-      <c r="F16" s="188" t="str">
+      <c r="F16" s="142" t="str">
         <f t="shared" si="9"/>
         <v>tshi</v>
       </c>
-      <c r="G16" s="189" t="str">
+      <c r="G16" s="109" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="H16" s="189" t="str">
+      <c r="H16" s="109" t="str">
         <f t="shared" si="6"/>
         <v>v</v>
       </c>
-      <c r="I16" s="190" t="str">
+      <c r="I16" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄑ</v>
       </c>
@@ -13629,20 +13688,20 @@
       <c r="AA16" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AC16" s="207">
+      <c r="AC16" s="160">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="AD16" s="197" t="s">
+      <c r="AD16" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="AE16" s="198" t="s">
+      <c r="AE16" s="151" t="s">
         <v>833</v>
       </c>
-      <c r="AF16" s="199" t="s">
+      <c r="AF16" s="152" t="s">
         <v>837</v>
       </c>
-      <c r="AG16" s="200" t="s">
+      <c r="AG16" s="153" t="s">
         <v>354</v>
       </c>
     </row>
@@ -13650,19 +13709,19 @@
       <c r="E17" s="29">
         <v>15</v>
       </c>
-      <c r="F17" s="188" t="str">
+      <c r="F17" s="142" t="str">
         <f t="shared" si="9"/>
         <v>p4</v>
       </c>
-      <c r="G17" s="189" t="str">
+      <c r="G17" s="109" t="str">
         <f t="shared" si="5"/>
         <v>g</v>
       </c>
-      <c r="H17" s="189" t="str">
+      <c r="H17" s="109" t="str">
         <f t="shared" si="6"/>
         <v>t</v>
       </c>
-      <c r="I17" s="190" t="str">
+      <c r="I17" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆴ</v>
       </c>
@@ -13703,20 +13762,20 @@
       <c r="AA17" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="AC17" s="207">
+      <c r="AC17" s="160">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="AD17" s="197" t="s">
+      <c r="AD17" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="AE17" s="198" t="s">
+      <c r="AE17" s="151" t="s">
         <v>783</v>
       </c>
-      <c r="AF17" s="199" t="s">
+      <c r="AF17" s="152" t="s">
         <v>783</v>
       </c>
-      <c r="AG17" s="200" t="s">
+      <c r="AG17" s="153" t="s">
         <v>172</v>
       </c>
     </row>
@@ -13724,19 +13783,19 @@
       <c r="E18" s="29">
         <v>16</v>
       </c>
-      <c r="F18" s="188" t="str">
+      <c r="F18" s="142" t="str">
         <f t="shared" si="9"/>
         <v>t4</v>
       </c>
-      <c r="G18" s="189" t="str">
+      <c r="G18" s="109" t="str">
         <f t="shared" si="5"/>
         <v>q</v>
       </c>
-      <c r="H18" s="189" t="str">
+      <c r="H18" s="109" t="str">
         <f t="shared" si="6"/>
         <v>g</v>
       </c>
-      <c r="I18" s="190" t="str">
+      <c r="I18" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆵ</v>
       </c>
@@ -13777,20 +13836,20 @@
       <c r="AA18" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="AC18" s="208">
+      <c r="AC18" s="161">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="AD18" s="209" t="s">
+      <c r="AD18" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="AE18" s="210" t="s">
+      <c r="AE18" s="163" t="s">
         <v>784</v>
       </c>
-      <c r="AF18" s="211" t="s">
+      <c r="AF18" s="164" t="s">
         <v>784</v>
       </c>
-      <c r="AG18" s="212" t="s">
+      <c r="AG18" s="165" t="s">
         <v>439</v>
       </c>
     </row>
@@ -13798,19 +13857,19 @@
       <c r="E19" s="29">
         <v>17</v>
       </c>
-      <c r="F19" s="188">
+      <c r="F19" s="142">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="G19" s="189" t="str">
+      <c r="G19" s="109" t="str">
         <f t="shared" si="5"/>
         <v>z</v>
       </c>
-      <c r="H19" s="189" t="str">
+      <c r="H19" s="109" t="str">
         <f t="shared" si="6"/>
         <v>b</v>
       </c>
-      <c r="I19" s="190" t="str">
+      <c r="I19" s="143" t="str">
         <f t="shared" si="7"/>
         <v>˪</v>
       </c>
@@ -13851,20 +13910,20 @@
       <c r="AA19" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="AC19" s="196">
+      <c r="AC19" s="149">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="AD19" s="197" t="s">
+      <c r="AD19" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="AE19" s="198" t="s">
+      <c r="AE19" s="151" t="s">
         <v>785</v>
       </c>
-      <c r="AF19" s="199" t="s">
+      <c r="AF19" s="152" t="s">
         <v>788</v>
       </c>
-      <c r="AG19" s="200" t="s">
+      <c r="AG19" s="153" t="s">
         <v>786</v>
       </c>
     </row>
@@ -13872,19 +13931,19 @@
       <c r="E20" s="29">
         <v>18</v>
       </c>
-      <c r="F20" s="188" t="str">
+      <c r="F20" s="142" t="str">
         <f t="shared" si="9"/>
         <v>c</v>
       </c>
-      <c r="G20" s="189" t="str">
+      <c r="G20" s="109" t="str">
         <f t="shared" si="5"/>
         <v>c</v>
       </c>
-      <c r="H20" s="189" t="str">
+      <c r="H20" s="109" t="str">
         <f t="shared" si="6"/>
         <v>y</v>
       </c>
-      <c r="I20" s="190" t="str">
+      <c r="I20" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄗ</v>
       </c>
@@ -13925,20 +13984,20 @@
       <c r="AA20" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AC20" s="196">
+      <c r="AC20" s="149">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="AD20" s="197" t="s">
+      <c r="AD20" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="AE20" s="198" t="s">
+      <c r="AE20" s="151" t="s">
         <v>787</v>
       </c>
-      <c r="AF20" s="199" t="s">
+      <c r="AF20" s="152" t="s">
         <v>838</v>
       </c>
-      <c r="AG20" s="200" t="s">
+      <c r="AG20" s="153" t="s">
         <v>409</v>
       </c>
     </row>
@@ -13946,19 +14005,19 @@
       <c r="E21" s="29">
         <v>19</v>
       </c>
-      <c r="F21" s="188" t="str">
+      <c r="F21" s="142" t="str">
         <f t="shared" si="9"/>
         <v>j</v>
       </c>
-      <c r="G21" s="189" t="str">
+      <c r="G21" s="109" t="str">
         <f t="shared" si="5"/>
         <v>C</v>
       </c>
-      <c r="H21" s="189" t="str">
+      <c r="H21" s="109" t="str">
         <f t="shared" si="6"/>
         <v>h</v>
       </c>
-      <c r="I21" s="190" t="str">
+      <c r="I21" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆡ</v>
       </c>
@@ -13999,20 +14058,20 @@
       <c r="AA21" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AC21" s="196">
+      <c r="AC21" s="149">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="AD21" s="197" t="s">
+      <c r="AD21" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="AE21" s="198" t="s">
+      <c r="AE21" s="151" t="s">
         <v>789</v>
       </c>
-      <c r="AF21" s="199" t="s">
+      <c r="AF21" s="152" t="s">
         <v>839</v>
       </c>
-      <c r="AG21" s="200" t="s">
+      <c r="AG21" s="153" t="s">
         <v>406</v>
       </c>
     </row>
@@ -14020,19 +14079,19 @@
       <c r="E22" s="29">
         <v>20</v>
       </c>
-      <c r="F22" s="188" t="str">
+      <c r="F22" s="142" t="str">
         <f t="shared" si="9"/>
         <v>ch</v>
       </c>
-      <c r="G22" s="189" t="str">
+      <c r="G22" s="109" t="str">
         <f t="shared" si="5"/>
         <v>s</v>
       </c>
-      <c r="H22" s="189" t="str">
+      <c r="H22" s="109" t="str">
         <f t="shared" si="6"/>
         <v>n</v>
       </c>
-      <c r="I22" s="190" t="str">
+      <c r="I22" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄘ</v>
       </c>
@@ -14073,20 +14132,20 @@
       <c r="AA22" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AC22" s="196">
+      <c r="AC22" s="149">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="AD22" s="197" t="s">
+      <c r="AD22" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="AE22" s="198" t="s">
+      <c r="AE22" s="151" t="s">
         <v>790</v>
       </c>
-      <c r="AF22" s="199" t="s">
+      <c r="AF22" s="152" t="s">
         <v>840</v>
       </c>
-      <c r="AG22" s="200" t="s">
+      <c r="AG22" s="153" t="s">
         <v>411</v>
       </c>
     </row>
@@ -14094,19 +14153,19 @@
       <c r="E23" s="29">
         <v>21</v>
       </c>
-      <c r="F23" s="188" t="str">
+      <c r="F23" s="142" t="str">
         <f t="shared" si="9"/>
         <v>i</v>
       </c>
-      <c r="G23" s="189" t="str">
+      <c r="G23" s="109" t="str">
         <f t="shared" si="5"/>
         <v>i</v>
       </c>
-      <c r="H23" s="189" t="str">
+      <c r="H23" s="109" t="str">
         <f t="shared" si="6"/>
         <v>u</v>
       </c>
-      <c r="I23" s="190" t="str">
+      <c r="I23" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄧ</v>
       </c>
@@ -14147,20 +14206,20 @@
       <c r="AA23" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AC23" s="213">
+      <c r="AC23" s="166">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="AD23" s="214" t="s">
+      <c r="AD23" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="AE23" s="215" t="s">
+      <c r="AE23" s="168" t="s">
         <v>791</v>
       </c>
-      <c r="AF23" s="216" t="s">
+      <c r="AF23" s="169" t="s">
         <v>401</v>
       </c>
-      <c r="AG23" s="217" t="s">
+      <c r="AG23" s="170" t="s">
         <v>380</v>
       </c>
     </row>
@@ -14168,19 +14227,19 @@
       <c r="E24" s="29">
         <v>22</v>
       </c>
-      <c r="F24" s="188" t="str">
+      <c r="F24" s="142" t="str">
         <f t="shared" si="9"/>
         <v>inn</v>
       </c>
-      <c r="G24" s="189" t="str">
+      <c r="G24" s="109" t="str">
         <f t="shared" si="5"/>
         <v>u</v>
       </c>
-      <c r="H24" s="189" t="str">
+      <c r="H24" s="109" t="str">
         <f t="shared" si="6"/>
         <v>j</v>
       </c>
-      <c r="I24" s="190" t="str">
+      <c r="I24" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆪ</v>
       </c>
@@ -14221,20 +14280,20 @@
       <c r="AA24" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="AC24" s="218">
+      <c r="AC24" s="171">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="AD24" s="203" t="s">
+      <c r="AD24" s="156" t="s">
         <v>118</v>
       </c>
-      <c r="AE24" s="204" t="s">
+      <c r="AE24" s="157" t="s">
         <v>792</v>
       </c>
-      <c r="AF24" s="205" t="s">
+      <c r="AF24" s="158" t="s">
         <v>792</v>
       </c>
-      <c r="AG24" s="206" t="s">
+      <c r="AG24" s="159" t="s">
         <v>793</v>
       </c>
     </row>
@@ -14242,19 +14301,19 @@
       <c r="E25" s="29">
         <v>23</v>
       </c>
-      <c r="F25" s="188" t="str">
+      <c r="F25" s="142" t="str">
         <f t="shared" si="9"/>
         <v>om</v>
       </c>
-      <c r="G25" s="189" t="str">
+      <c r="G25" s="109" t="str">
         <f t="shared" si="5"/>
         <v>B</v>
       </c>
-      <c r="H25" s="189" t="str">
+      <c r="H25" s="109" t="str">
         <f t="shared" si="6"/>
         <v>m</v>
       </c>
-      <c r="I25" s="190" t="str">
+      <c r="I25" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆱ</v>
       </c>
@@ -14295,20 +14354,20 @@
       <c r="AA25" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="AC25" s="196">
+      <c r="AC25" s="149">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="AD25" s="197" t="s">
+      <c r="AD25" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="AE25" s="198" t="s">
+      <c r="AE25" s="151" t="s">
         <v>794</v>
       </c>
-      <c r="AF25" s="199" t="s">
+      <c r="AF25" s="152" t="s">
         <v>795</v>
       </c>
-      <c r="AG25" s="200" t="s">
+      <c r="AG25" s="153" t="s">
         <v>240</v>
       </c>
     </row>
@@ -14316,19 +14375,19 @@
       <c r="E26" s="29">
         <v>24</v>
       </c>
-      <c r="F26" s="188" t="str">
+      <c r="F26" s="142" t="str">
         <f t="shared" si="9"/>
         <v>s</v>
       </c>
-      <c r="G26" s="189" t="str">
+      <c r="G26" s="109" t="str">
         <f t="shared" si="5"/>
         <v>a</v>
       </c>
-      <c r="H26" s="189" t="str">
+      <c r="H26" s="109" t="str">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I26" s="190" t="str">
+      <c r="I26" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄙ</v>
       </c>
@@ -14369,20 +14428,20 @@
       <c r="AA26" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="AC26" s="196">
+      <c r="AC26" s="149">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="AD26" s="197" t="s">
+      <c r="AD26" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="AE26" s="198" t="s">
+      <c r="AE26" s="151" t="s">
         <v>796</v>
       </c>
-      <c r="AF26" s="199" t="s">
+      <c r="AF26" s="152" t="s">
         <v>797</v>
       </c>
-      <c r="AG26" s="200" t="s">
+      <c r="AG26" s="153" t="s">
         <v>318</v>
       </c>
     </row>
@@ -14390,19 +14449,19 @@
       <c r="E27" s="29">
         <v>25</v>
       </c>
-      <c r="F27" s="188" t="str">
+      <c r="F27" s="142" t="str">
         <f t="shared" si="9"/>
         <v>ann</v>
       </c>
-      <c r="G27" s="189" t="str">
+      <c r="G27" s="109" t="str">
         <f t="shared" si="5"/>
         <v>o</v>
       </c>
-      <c r="H27" s="189" t="str">
+      <c r="H27" s="109" t="str">
         <f t="shared" si="6"/>
         <v>i</v>
       </c>
-      <c r="I27" s="190" t="str">
+      <c r="I27" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆩ</v>
       </c>
@@ -14443,20 +14502,20 @@
       <c r="AA27" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="AC27" s="196">
+      <c r="AC27" s="149">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="AD27" s="197" t="s">
+      <c r="AD27" s="150" t="s">
         <v>121</v>
       </c>
-      <c r="AE27" s="198" t="s">
+      <c r="AE27" s="151" t="s">
         <v>798</v>
       </c>
-      <c r="AF27" s="199" t="s">
+      <c r="AF27" s="152" t="s">
         <v>799</v>
       </c>
-      <c r="AG27" s="200" t="s">
+      <c r="AG27" s="153" t="s">
         <v>169</v>
       </c>
     </row>
@@ -14464,19 +14523,19 @@
       <c r="E28" s="29">
         <v>26</v>
       </c>
-      <c r="F28" s="188" t="str">
+      <c r="F28" s="142" t="str">
         <f t="shared" si="9"/>
         <v>onn</v>
       </c>
-      <c r="G28" s="189" t="str">
+      <c r="G28" s="109" t="str">
         <f t="shared" si="5"/>
         <v>ø</v>
       </c>
-      <c r="H28" s="189" t="str">
+      <c r="H28" s="109" t="str">
         <f t="shared" si="6"/>
         <v>k</v>
       </c>
-      <c r="I28" s="190" t="str">
+      <c r="I28" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆧ</v>
       </c>
@@ -14517,20 +14576,20 @@
       <c r="AA28" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="AC28" s="196">
+      <c r="AC28" s="149">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="AD28" s="197" t="s">
+      <c r="AD28" s="150" t="s">
         <v>800</v>
       </c>
-      <c r="AE28" s="198" t="s">
+      <c r="AE28" s="151" t="s">
         <v>226</v>
       </c>
-      <c r="AF28" s="199" t="s">
+      <c r="AF28" s="152" t="s">
         <v>796</v>
       </c>
-      <c r="AG28" s="200" t="s">
+      <c r="AG28" s="153" t="s">
         <v>226</v>
       </c>
     </row>
@@ -14538,19 +14597,19 @@
       <c r="E29" s="29">
         <v>27</v>
       </c>
-      <c r="F29" s="188" t="str">
+      <c r="F29" s="142" t="str">
         <f t="shared" si="9"/>
         <v>aunn</v>
       </c>
-      <c r="G29" s="189" t="str">
+      <c r="G29" s="109" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="H29" s="189" t="str">
+      <c r="H29" s="109" t="str">
         <f t="shared" si="6"/>
         <v>,</v>
       </c>
-      <c r="I29" s="190" t="str">
+      <c r="I29" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆯ</v>
       </c>
@@ -14571,20 +14630,20 @@
       <c r="AA29" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="AC29" s="196">
+      <c r="AC29" s="149">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="AD29" s="197" t="s">
+      <c r="AD29" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="AE29" s="198" t="s">
+      <c r="AE29" s="151" t="s">
         <v>801</v>
       </c>
-      <c r="AF29" s="199" t="s">
+      <c r="AF29" s="152" t="s">
         <v>801</v>
       </c>
-      <c r="AG29" s="200" t="s">
+      <c r="AG29" s="153" t="s">
         <v>756</v>
       </c>
     </row>
@@ -14592,19 +14651,19 @@
       <c r="E30" s="29">
         <v>28</v>
       </c>
-      <c r="F30" s="188" t="str">
+      <c r="F30" s="142" t="str">
         <f t="shared" si="9"/>
         <v>enn</v>
       </c>
-      <c r="G30" s="189" t="str">
+      <c r="G30" s="109" t="str">
         <f t="shared" si="5"/>
         <v>I</v>
       </c>
-      <c r="H30" s="189" t="str">
+      <c r="H30" s="109" t="str">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="I30" s="190" t="str">
+      <c r="I30" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆥ</v>
       </c>
@@ -14625,20 +14684,20 @@
       <c r="AA30" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="AC30" s="219">
+      <c r="AC30" s="172">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="AD30" s="209" t="s">
+      <c r="AD30" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="AE30" s="210" t="s">
+      <c r="AE30" s="163" t="s">
         <v>802</v>
       </c>
-      <c r="AF30" s="211" t="s">
+      <c r="AF30" s="164" t="s">
         <v>803</v>
       </c>
-      <c r="AG30" s="212" t="s">
+      <c r="AG30" s="165" t="s">
         <v>441</v>
       </c>
     </row>
@@ -14646,19 +14705,19 @@
       <c r="E31" s="29">
         <v>29</v>
       </c>
-      <c r="F31" s="188" t="str">
+      <c r="F31" s="142" t="str">
         <f t="shared" si="9"/>
         <v>o</v>
       </c>
-      <c r="G31" s="189" t="str">
+      <c r="G31" s="109" t="str">
         <f t="shared" si="5"/>
         <v>e</v>
       </c>
-      <c r="H31" s="189" t="str">
+      <c r="H31" s="109" t="str">
         <f t="shared" si="6"/>
         <v>o</v>
       </c>
-      <c r="I31" s="190" t="str">
+      <c r="I31" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄜ</v>
       </c>
@@ -14679,20 +14738,20 @@
       <c r="AA31" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="AC31" s="218">
+      <c r="AC31" s="171">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="AD31" s="203" t="s">
+      <c r="AD31" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="AE31" s="204" t="s">
+      <c r="AE31" s="157" t="s">
         <v>804</v>
       </c>
-      <c r="AF31" s="205">
+      <c r="AF31" s="158">
         <v>0</v>
       </c>
-      <c r="AG31" s="206" t="s">
+      <c r="AG31" s="159" t="s">
         <v>320</v>
       </c>
     </row>
@@ -14700,19 +14759,19 @@
       <c r="E32" s="29">
         <v>30</v>
       </c>
-      <c r="F32" s="188" t="str">
+      <c r="F32" s="142" t="str">
         <f t="shared" si="9"/>
         <v>ainn</v>
       </c>
-      <c r="G32" s="189" t="str">
+      <c r="G32" s="109" t="str">
         <f t="shared" si="5"/>
         <v>U</v>
       </c>
-      <c r="H32" s="189" t="str">
+      <c r="H32" s="109" t="str">
         <f t="shared" si="6"/>
         <v>l</v>
       </c>
-      <c r="I32" s="190" t="str">
+      <c r="I32" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆮ</v>
       </c>
@@ -14733,18 +14792,18 @@
       <c r="AA32" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="AC32" s="196">
+      <c r="AC32" s="149">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="AD32" s="197" t="s">
+      <c r="AD32" s="150" t="s">
         <v>139</v>
       </c>
-      <c r="AE32" s="198" t="s">
+      <c r="AE32" s="151" t="s">
         <v>805</v>
       </c>
-      <c r="AF32" s="199"/>
-      <c r="AG32" s="200" t="s">
+      <c r="AF32" s="152"/>
+      <c r="AG32" s="153" t="s">
         <v>376</v>
       </c>
     </row>
@@ -14752,19 +14811,19 @@
       <c r="E33" s="29">
         <v>31</v>
       </c>
-      <c r="F33" s="188" t="e">
+      <c r="F33" s="142" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="G33" s="189" t="str">
+      <c r="G33" s="109" t="str">
         <f t="shared" si="5"/>
         <v>Y</v>
       </c>
-      <c r="H33" s="189" t="str">
+      <c r="H33" s="109" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="I33" s="190" t="e">
+      <c r="I33" s="143" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
@@ -14785,18 +14844,18 @@
       <c r="AA33" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="AC33" s="196">
+      <c r="AC33" s="149">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="AD33" s="197" t="s">
+      <c r="AD33" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="AE33" s="198" t="s">
+      <c r="AE33" s="151" t="s">
         <v>806</v>
       </c>
-      <c r="AF33" s="199"/>
-      <c r="AG33" s="200" t="s">
+      <c r="AF33" s="152"/>
+      <c r="AG33" s="153" t="s">
         <v>392</v>
       </c>
     </row>
@@ -14804,19 +14863,19 @@
       <c r="E34" s="29">
         <v>32</v>
       </c>
-      <c r="F34" s="188" t="str">
+      <c r="F34" s="142" t="str">
         <f t="shared" si="9"/>
         <v>m</v>
       </c>
-      <c r="G34" s="189" t="str">
+      <c r="G34" s="109" t="str">
         <f t="shared" si="5"/>
         <v>L</v>
       </c>
-      <c r="H34" s="189" t="str">
+      <c r="H34" s="109" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I34" s="190" t="str">
+      <c r="I34" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆬ</v>
       </c>
@@ -14837,18 +14896,18 @@
       <c r="AA34" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="AC34" s="219">
+      <c r="AC34" s="172">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="AD34" s="209" t="s">
+      <c r="AD34" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="AE34" s="210" t="s">
+      <c r="AE34" s="163" t="s">
         <v>807</v>
       </c>
-      <c r="AF34" s="211"/>
-      <c r="AG34" s="212" t="s">
+      <c r="AF34" s="164"/>
+      <c r="AG34" s="165" t="s">
         <v>447</v>
       </c>
     </row>
@@ -14856,19 +14915,19 @@
       <c r="E35" s="29">
         <v>33</v>
       </c>
-      <c r="F35" s="188" t="str">
+      <c r="F35" s="142" t="str">
         <f t="shared" si="9"/>
         <v>an</v>
       </c>
-      <c r="G35" s="189" t="str">
+      <c r="G35" s="109" t="str">
         <f t="shared" si="5"/>
         <v>D</v>
       </c>
-      <c r="H35" s="189" t="str">
+      <c r="H35" s="109" t="str">
         <f t="shared" si="6"/>
         <v>p</v>
       </c>
-      <c r="I35" s="190" t="str">
+      <c r="I35" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄢ</v>
       </c>
@@ -14889,20 +14948,20 @@
       <c r="AA35" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="AC35" s="196">
+      <c r="AC35" s="149">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="AD35" s="197" t="s">
+      <c r="AD35" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="AE35" s="198" t="s">
+      <c r="AE35" s="151" t="s">
         <v>808</v>
       </c>
-      <c r="AF35" s="199" t="s">
+      <c r="AF35" s="152" t="s">
         <v>806</v>
       </c>
-      <c r="AG35" s="200" t="s">
+      <c r="AG35" s="153" t="s">
         <v>809</v>
       </c>
     </row>
@@ -14910,19 +14969,19 @@
       <c r="E36" s="29">
         <v>34</v>
       </c>
-      <c r="F36" s="188" t="str">
+      <c r="F36" s="142" t="str">
         <f t="shared" si="9"/>
         <v>in</v>
       </c>
-      <c r="G36" s="189" t="str">
+      <c r="G36" s="109" t="str">
         <f t="shared" si="5"/>
         <v>Q</v>
       </c>
-      <c r="H36" s="189" t="str">
+      <c r="H36" s="109" t="str">
         <f t="shared" si="6"/>
         <v>;</v>
       </c>
-      <c r="I36" s="190" t="str">
+      <c r="I36" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㄣ</v>
       </c>
@@ -14943,20 +15002,20 @@
       <c r="AA36" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="AC36" s="196">
+      <c r="AC36" s="149">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="AD36" s="197" t="s">
+      <c r="AD36" s="150" t="s">
         <v>126</v>
       </c>
-      <c r="AE36" s="198" t="s">
+      <c r="AE36" s="151" t="s">
         <v>810</v>
       </c>
-      <c r="AF36" s="199" t="s">
+      <c r="AF36" s="152" t="s">
         <v>320</v>
       </c>
-      <c r="AG36" s="200" t="s">
+      <c r="AG36" s="153" t="s">
         <v>355</v>
       </c>
     </row>
@@ -14964,19 +15023,19 @@
       <c r="E37" s="29">
         <v>35</v>
       </c>
-      <c r="F37" s="188" t="str">
+      <c r="F37" s="142" t="str">
         <f t="shared" si="9"/>
         <v>ong</v>
       </c>
-      <c r="G37" s="189" t="str">
+      <c r="G37" s="109" t="str">
         <f t="shared" si="5"/>
         <v>G</v>
       </c>
-      <c r="H37" s="189" t="str">
+      <c r="H37" s="109" t="str">
         <f t="shared" si="6"/>
         <v>/</v>
       </c>
-      <c r="I37" s="190" t="str">
+      <c r="I37" s="143" t="str">
         <f t="shared" si="7"/>
         <v>ㆲ</v>
       </c>
@@ -14997,20 +15056,20 @@
       <c r="AA37" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="AC37" s="196">
+      <c r="AC37" s="149">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="AD37" s="197" t="s">
+      <c r="AD37" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="AE37" s="198" t="s">
+      <c r="AE37" s="151" t="s">
         <v>811</v>
       </c>
-      <c r="AF37" s="199" t="s">
+      <c r="AF37" s="152" t="s">
         <v>812</v>
       </c>
-      <c r="AG37" s="200" t="s">
+      <c r="AG37" s="153" t="s">
         <v>443</v>
       </c>
     </row>
@@ -15035,20 +15094,20 @@
       <c r="AA38" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="AC38" s="196">
+      <c r="AC38" s="149">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="AD38" s="197" t="s">
+      <c r="AD38" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="AE38" s="198" t="s">
+      <c r="AE38" s="151" t="s">
         <v>813</v>
       </c>
-      <c r="AF38" s="199" t="s">
+      <c r="AF38" s="152" t="s">
         <v>814</v>
       </c>
-      <c r="AG38" s="200" t="s">
+      <c r="AG38" s="153" t="s">
         <v>430</v>
       </c>
     </row>
@@ -15073,20 +15132,20 @@
       <c r="AA39" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="AC39" s="196">
+      <c r="AC39" s="149">
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="AD39" s="197" t="s">
+      <c r="AD39" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="AE39" s="198" t="s">
+      <c r="AE39" s="151" t="s">
         <v>815</v>
       </c>
-      <c r="AF39" s="199" t="s">
+      <c r="AF39" s="152" t="s">
         <v>326</v>
       </c>
-      <c r="AG39" s="200" t="s">
+      <c r="AG39" s="153" t="s">
         <v>816</v>
       </c>
     </row>
@@ -15111,20 +15170,20 @@
       <c r="AA40" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="AC40" s="196">
+      <c r="AC40" s="149">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="AD40" s="197" t="s">
+      <c r="AD40" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="AE40" s="198" t="s">
+      <c r="AE40" s="151" t="s">
         <v>817</v>
       </c>
-      <c r="AF40" s="199" t="s">
+      <c r="AF40" s="152" t="s">
         <v>445</v>
       </c>
-      <c r="AG40" s="200" t="s">
+      <c r="AG40" s="153" t="s">
         <v>343</v>
       </c>
     </row>
@@ -15147,20 +15206,20 @@
       <c r="AA41" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="AC41" s="196">
+      <c r="AC41" s="149">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="AD41" s="197" t="s">
+      <c r="AD41" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="AE41" s="198" t="s">
+      <c r="AE41" s="151" t="s">
         <v>772</v>
       </c>
-      <c r="AF41" s="199" t="s">
+      <c r="AF41" s="152" t="s">
         <v>330</v>
       </c>
-      <c r="AG41" s="200" t="s">
+      <c r="AG41" s="153" t="s">
         <v>444</v>
       </c>
     </row>
@@ -15183,20 +15242,20 @@
       <c r="AA42" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="AC42" s="196">
+      <c r="AC42" s="149">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="AD42" s="197" t="s">
+      <c r="AD42" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="AE42" s="198" t="s">
+      <c r="AE42" s="151" t="s">
         <v>818</v>
       </c>
-      <c r="AF42" s="199" t="s">
+      <c r="AF42" s="152" t="s">
         <v>378</v>
       </c>
-      <c r="AG42" s="200" t="s">
+      <c r="AG42" s="153" t="s">
         <v>166</v>
       </c>
     </row>
@@ -15219,20 +15278,20 @@
       <c r="AA43" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="AC43" s="196">
+      <c r="AC43" s="149">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="AD43" s="197" t="s">
+      <c r="AD43" s="150" t="s">
         <v>133</v>
       </c>
-      <c r="AE43" s="198" t="s">
+      <c r="AE43" s="151" t="s">
         <v>819</v>
       </c>
-      <c r="AF43" s="199">
+      <c r="AF43" s="152">
         <v>1</v>
       </c>
-      <c r="AG43" s="200" t="s">
+      <c r="AG43" s="153" t="s">
         <v>432</v>
       </c>
     </row>
@@ -15255,20 +15314,20 @@
       <c r="AA44" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="AC44" s="196">
+      <c r="AC44" s="149">
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="AD44" s="197" t="s">
+      <c r="AD44" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="AE44" s="198" t="s">
+      <c r="AE44" s="151" t="s">
         <v>820</v>
       </c>
-      <c r="AF44" s="199">
+      <c r="AF44" s="152">
         <v>2</v>
       </c>
-      <c r="AG44" s="200" t="s">
+      <c r="AG44" s="153" t="s">
         <v>821</v>
       </c>
     </row>
@@ -15288,20 +15347,20 @@
       <c r="AA45" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="AC45" s="196">
+      <c r="AC45" s="149">
         <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="AD45" s="197" t="s">
+      <c r="AD45" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="AE45" s="198" t="s">
+      <c r="AE45" s="151" t="s">
         <v>822</v>
       </c>
-      <c r="AF45" s="199">
+      <c r="AF45" s="152">
         <v>3</v>
       </c>
-      <c r="AG45" s="200" t="s">
+      <c r="AG45" s="153" t="s">
         <v>434</v>
       </c>
     </row>
@@ -15319,20 +15378,20 @@
       <c r="AA46" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="AC46" s="196">
+      <c r="AC46" s="149">
         <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="AD46" s="197" t="s">
+      <c r="AD46" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="AE46" s="220" t="s">
+      <c r="AE46" s="173" t="s">
         <v>823</v>
       </c>
-      <c r="AF46" s="199">
+      <c r="AF46" s="152">
         <v>5</v>
       </c>
-      <c r="AG46" s="200" t="s">
+      <c r="AG46" s="153" t="s">
         <v>446</v>
       </c>
     </row>
@@ -15350,178 +15409,178 @@
       <c r="AA47" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="AC47" s="196">
+      <c r="AC47" s="149">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="AD47" s="197" t="s">
+      <c r="AD47" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="AE47" s="198"/>
-      <c r="AF47" s="199">
+      <c r="AE47" s="151"/>
+      <c r="AF47" s="152">
         <v>7</v>
       </c>
-      <c r="AG47" s="200" t="s">
+      <c r="AG47" s="153" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="48" spans="5:33">
-      <c r="AC48" s="218">
+      <c r="AC48" s="171">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="AD48" s="203" t="s">
+      <c r="AD48" s="156" t="s">
         <v>447</v>
       </c>
-      <c r="AE48" s="204">
+      <c r="AE48" s="157">
         <v>1</v>
       </c>
-      <c r="AF48" s="205"/>
-      <c r="AG48" s="206" t="s">
+      <c r="AF48" s="158"/>
+      <c r="AG48" s="159" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="49" spans="29:33">
-      <c r="AC49" s="196">
+      <c r="AC49" s="149">
         <f t="shared" si="8"/>
         <v>47</v>
       </c>
-      <c r="AD49" s="197" t="s">
+      <c r="AD49" s="150" t="s">
         <v>744</v>
       </c>
-      <c r="AE49" s="198">
+      <c r="AE49" s="151">
         <v>2</v>
       </c>
-      <c r="AF49" s="199"/>
-      <c r="AG49" s="200" t="s">
+      <c r="AF49" s="152"/>
+      <c r="AG49" s="153" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="50" spans="29:33">
-      <c r="AC50" s="196">
+      <c r="AC50" s="149">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="AD50" s="197" t="s">
+      <c r="AD50" s="150" t="s">
         <v>741</v>
       </c>
-      <c r="AE50" s="198">
+      <c r="AE50" s="151">
         <v>3</v>
       </c>
-      <c r="AF50" s="199"/>
-      <c r="AG50" s="200" t="s">
+      <c r="AF50" s="152"/>
+      <c r="AG50" s="153" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="51" spans="29:33">
-      <c r="AC51" s="196">
+      <c r="AC51" s="149">
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
-      <c r="AD51" s="197" t="s">
+      <c r="AD51" s="150" t="s">
         <v>824</v>
       </c>
-      <c r="AE51" s="198" t="s">
+      <c r="AE51" s="151" t="s">
         <v>825</v>
       </c>
-      <c r="AF51" s="199"/>
-      <c r="AG51" s="200" t="s">
+      <c r="AF51" s="152"/>
+      <c r="AG51" s="153" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="52" spans="29:33">
-      <c r="AC52" s="196">
+      <c r="AC52" s="149">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="AD52" s="197" t="s">
+      <c r="AD52" s="150" t="s">
         <v>826</v>
       </c>
-      <c r="AE52" s="198" t="s">
+      <c r="AE52" s="151" t="s">
         <v>827</v>
       </c>
-      <c r="AF52" s="199"/>
-      <c r="AG52" s="200" t="s">
+      <c r="AF52" s="152"/>
+      <c r="AG52" s="153" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="53" spans="29:33">
-      <c r="AC53" s="196">
+      <c r="AC53" s="149">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="AD53" s="197" t="s">
+      <c r="AD53" s="150" t="s">
         <v>828</v>
       </c>
-      <c r="AE53" s="198" t="s">
+      <c r="AE53" s="151" t="s">
         <v>829</v>
       </c>
-      <c r="AF53" s="199"/>
-      <c r="AG53" s="200" t="s">
+      <c r="AF53" s="152"/>
+      <c r="AG53" s="153" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="54" spans="29:33">
-      <c r="AC54" s="196">
+      <c r="AC54" s="149">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="AD54" s="197" t="s">
+      <c r="AD54" s="150" t="s">
         <v>830</v>
       </c>
-      <c r="AE54" s="198" t="s">
+      <c r="AE54" s="151" t="s">
         <v>831</v>
       </c>
-      <c r="AF54" s="199"/>
-      <c r="AG54" s="200" t="s">
+      <c r="AF54" s="152"/>
+      <c r="AG54" s="153" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="55" spans="29:33">
-      <c r="AC55" s="196">
+      <c r="AC55" s="149">
         <f t="shared" si="8"/>
         <v>53</v>
       </c>
-      <c r="AD55" s="197" t="s">
+      <c r="AD55" s="150" t="s">
         <v>747</v>
       </c>
-      <c r="AE55" s="198">
+      <c r="AE55" s="151">
         <v>5</v>
       </c>
-      <c r="AF55" s="199"/>
-      <c r="AG55" s="200" t="s">
+      <c r="AF55" s="152"/>
+      <c r="AG55" s="153" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="56" spans="29:33">
-      <c r="AC56" s="196">
+      <c r="AC56" s="149">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
-      <c r="AD56" s="197" t="s">
+      <c r="AD56" s="150" t="s">
         <v>750</v>
       </c>
-      <c r="AE56" s="198">
+      <c r="AE56" s="151">
         <v>7</v>
       </c>
-      <c r="AF56" s="199"/>
-      <c r="AG56" s="200" t="s">
+      <c r="AF56" s="152"/>
+      <c r="AG56" s="153" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="57" spans="29:33">
-      <c r="AC57" s="219">
+      <c r="AC57" s="172">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="AD57" s="209" t="s">
+      <c r="AD57" s="162" t="s">
         <v>832</v>
       </c>
-      <c r="AE57" s="210">
+      <c r="AE57" s="163">
         <v>8</v>
       </c>
-      <c r="AF57" s="211"/>
-      <c r="AG57" s="212"/>
+      <c r="AF57" s="164"/>
+      <c r="AG57" s="165"/>
     </row>
   </sheetData>
   <phoneticPr fontId="34" type="noConversion"/>
@@ -15536,8 +15595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4E826A-016D-4815-8F0F-E0DC577250AD}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -15619,7 +15678,7 @@
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="215" t="s">
         <v>385</v>
       </c>
       <c r="B3" s="29">
@@ -15682,7 +15741,7 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="215" t="s">
         <v>386</v>
       </c>
       <c r="B4" s="29">
@@ -15860,7 +15919,7 @@
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="215" t="s">
         <v>458</v>
       </c>
       <c r="B7" s="29">
@@ -15923,7 +15982,7 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="215" t="s">
         <v>459</v>
       </c>
       <c r="B8" s="29">
@@ -16157,7 +16216,7 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="215" t="s">
         <v>461</v>
       </c>
       <c r="B12" s="29">
@@ -16220,7 +16279,7 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="215" t="s">
         <v>462</v>
       </c>
       <c r="B13" s="29">
@@ -17893,472 +17952,472 @@
   <sheetData>
     <row r="1" spans="2:38" ht="15" thickBot="1"/>
     <row r="2" spans="2:38" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="106">
+      <c r="C2" s="202">
         <v>1</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="106">
+      <c r="D2" s="203"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="202">
         <v>2</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="133">
+      <c r="G2" s="203"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="189">
         <v>3</v>
       </c>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="133">
+      <c r="J2" s="190"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="189">
         <v>4</v>
       </c>
-      <c r="M2" s="134"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="133">
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="189">
         <v>5</v>
       </c>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="133">
+      <c r="P2" s="190"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="189">
         <v>6</v>
       </c>
-      <c r="S2" s="134"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="133">
+      <c r="S2" s="190"/>
+      <c r="T2" s="191"/>
+      <c r="U2" s="189">
         <v>7</v>
       </c>
-      <c r="V2" s="134"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="109">
+      <c r="V2" s="190"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="180">
         <v>8</v>
       </c>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="109">
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="180">
         <v>9</v>
       </c>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="109">
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="176"/>
+      <c r="AD2" s="180">
         <v>0</v>
       </c>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="140" t="s">
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="174" t="s">
         <v>371</v>
       </c>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="111"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="2:38" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="115" t="str">
+      <c r="C3" s="192" t="str">
         <f>D15</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="115" t="str">
+      <c r="D3" s="193"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="192" t="str">
         <f>H15</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="136" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="195" t="s">
         <v>289</v>
       </c>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="136" t="s">
+      <c r="J3" s="196"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="195" t="s">
         <v>290</v>
       </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="136" t="s">
+      <c r="M3" s="196"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="195" t="s">
         <v>291</v>
       </c>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="136" t="s">
+      <c r="P3" s="196"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="195" t="s">
         <v>292</v>
       </c>
-      <c r="S3" s="131"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="136" t="s">
+      <c r="S3" s="196"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="195" t="s">
         <v>293</v>
       </c>
-      <c r="V3" s="131"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="127" t="str">
+      <c r="V3" s="196"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="181" t="str">
         <f>D22</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="127" t="str">
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="181" t="str">
         <f>J22</f>
         <v>ㄞ</v>
       </c>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="127" t="str">
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="181" t="str">
         <f>O22</f>
         <v>ㄢ</v>
       </c>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="141" t="s">
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="177" t="s">
         <v>288</v>
       </c>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="143"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
     </row>
     <row r="4" spans="2:38" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="106" t="s">
+      <c r="E4" s="203"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="106" t="s">
+      <c r="H4" s="203"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="107"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="106" t="s">
+      <c r="K4" s="203"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="106" t="s">
+      <c r="N4" s="203"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="106" t="s">
+      <c r="Q4" s="203"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="202" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="107"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="109" t="s">
+      <c r="T4" s="203"/>
+      <c r="U4" s="204"/>
+      <c r="V4" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="W4" s="110"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="109" t="s">
+      <c r="W4" s="175"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="111"/>
-      <c r="AB4" s="109" t="s">
+      <c r="Z4" s="175"/>
+      <c r="AA4" s="176"/>
+      <c r="AB4" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="111"/>
-      <c r="AE4" s="109" t="s">
+      <c r="AC4" s="175"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="111"/>
+      <c r="AF4" s="175"/>
+      <c r="AG4" s="176"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="2:38" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="115" t="str">
+      <c r="D5" s="192" t="str">
         <f>F15</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="115" t="str">
+      <c r="E5" s="193"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="192" t="str">
         <f>I15</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="115" t="str">
+      <c r="H5" s="193"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="192" t="str">
         <f>L15</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="115" t="str">
+      <c r="K5" s="193"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="192" t="str">
         <f>Q15</f>
         <v>ㄐ</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="123" t="str">
+      <c r="N5" s="193"/>
+      <c r="O5" s="194"/>
+      <c r="P5" s="206" t="str">
         <f>M15</f>
         <v>ㆣ</v>
       </c>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="115" t="str">
+      <c r="Q5" s="207"/>
+      <c r="R5" s="208"/>
+      <c r="S5" s="192" t="str">
         <f>U15</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="118"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="127" t="str">
+      <c r="T5" s="193"/>
+      <c r="U5" s="194"/>
+      <c r="V5" s="181" t="str">
         <f>E22</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="128"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="127" t="str">
+      <c r="W5" s="182"/>
+      <c r="X5" s="183"/>
+      <c r="Y5" s="181" t="str">
         <f>H22</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="127" t="str">
+      <c r="Z5" s="182"/>
+      <c r="AA5" s="183"/>
+      <c r="AB5" s="181" t="str">
         <f>G22</f>
         <v>ㆤ</v>
       </c>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="127" t="str">
+      <c r="AC5" s="182"/>
+      <c r="AD5" s="183"/>
+      <c r="AE5" s="181" t="str">
         <f>P22</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="128"/>
-      <c r="AG5" s="129"/>
+      <c r="AF5" s="182"/>
+      <c r="AG5" s="183"/>
     </row>
     <row r="6" spans="2:38" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="3"/>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="106" t="s">
+      <c r="F6" s="203"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="106" t="s">
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="106" t="s">
+      <c r="L6" s="203"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="107"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="106" t="s">
+      <c r="O6" s="203"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="107"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="106" t="s">
+      <c r="R6" s="203"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="107"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="109" t="s">
+      <c r="U6" s="203"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="109" t="s">
+      <c r="X6" s="175"/>
+      <c r="Y6" s="176"/>
+      <c r="Z6" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="AA6" s="110"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="109" t="s">
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="176"/>
+      <c r="AC6" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="111"/>
-      <c r="AF6" s="109" t="s">
+      <c r="AD6" s="175"/>
+      <c r="AE6" s="176"/>
+      <c r="AF6" s="180" t="s">
         <v>370</v>
       </c>
-      <c r="AG6" s="110"/>
-      <c r="AH6" s="111"/>
+      <c r="AG6" s="175"/>
+      <c r="AH6" s="176"/>
     </row>
     <row r="7" spans="2:38" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="115" t="str">
+      <c r="E7" s="192" t="str">
         <f>G15</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="115" t="str">
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="192" t="str">
         <f>J15</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="115" t="str">
+      <c r="I7" s="193"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="192" t="str">
         <f>N15</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="118"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="115" t="str">
+      <c r="L7" s="193"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="192" t="str">
         <f>S15</f>
         <v>ㄑ</v>
       </c>
-      <c r="O7" s="118"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="126" t="str">
+      <c r="O7" s="193"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="212" t="str">
         <f>O15</f>
         <v>ㄫ</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="115" t="str">
+      <c r="R7" s="207"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="192" t="str">
         <f>W15</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="118"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="127" t="str">
+      <c r="U7" s="193"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="181" t="str">
         <f>F22</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="127" t="str">
+      <c r="X7" s="182"/>
+      <c r="Y7" s="183"/>
+      <c r="Z7" s="181" t="str">
         <f>I22</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="145" t="str">
+      <c r="AA7" s="182"/>
+      <c r="AB7" s="183"/>
+      <c r="AC7" s="185" t="str">
         <f>K22</f>
         <v>ㄠ</v>
       </c>
-      <c r="AD7" s="128"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="145" t="str">
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="183"/>
+      <c r="AF7" s="185" t="str">
         <f>Q22</f>
         <v>ㄤ</v>
       </c>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="129"/>
+      <c r="AG7" s="182"/>
+      <c r="AH7" s="183"/>
     </row>
     <row r="8" spans="2:38" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="106" t="s">
+      <c r="G8" s="203"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="106" t="s">
+      <c r="J8" s="203"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="107"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="106" t="s">
+      <c r="M8" s="203"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="106" t="s">
+      <c r="P8" s="203"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="107"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="106" t="s">
+      <c r="S8" s="203"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="107"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="109" t="s">
+      <c r="V8" s="203"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="109" t="s">
+      <c r="Y8" s="175"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="180" t="s">
         <v>367</v>
       </c>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="109" t="s">
+      <c r="AB8" s="175"/>
+      <c r="AC8" s="176"/>
+      <c r="AD8" s="180" t="s">
         <v>368</v>
       </c>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="144" t="s">
+      <c r="AE8" s="175"/>
+      <c r="AF8" s="176"/>
+      <c r="AG8" s="184" t="s">
         <v>369</v>
       </c>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="111"/>
+      <c r="AH8" s="175"/>
+      <c r="AI8" s="176"/>
     </row>
     <row r="9" spans="2:38" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="115" t="str">
+      <c r="F9" s="192" t="str">
         <f>E15</f>
         <v>ㆠ</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="115" t="str">
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="192" t="str">
         <f>K15</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="118"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="115" t="str">
+      <c r="J9" s="193"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="192" t="str">
         <f>P15</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="118"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="115" t="str">
+      <c r="M9" s="193"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="192" t="str">
         <f>T15</f>
         <v>ㄒ</v>
       </c>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="123" t="str">
+      <c r="P9" s="193"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="206" t="str">
         <f>V15 &amp; " / " &amp; R15</f>
         <v>ㆡ / ㆢ</v>
       </c>
-      <c r="S9" s="124"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="115" t="str">
+      <c r="S9" s="207"/>
+      <c r="T9" s="208"/>
+      <c r="U9" s="192" t="str">
         <f>X15</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="118"/>
-      <c r="W9" s="119"/>
-      <c r="X9" s="127" t="str">
+      <c r="V9" s="193"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="181" t="str">
         <f>N22</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="129"/>
-      <c r="AA9" s="127" t="str">
+      <c r="Y9" s="182"/>
+      <c r="Z9" s="183"/>
+      <c r="AA9" s="181" t="str">
         <f>L22 &amp; " / " &amp; M22</f>
         <v>ㆰ / ㆱ</v>
       </c>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="127" t="str">
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="181" t="str">
         <f>R22</f>
         <v>ㆲ</v>
       </c>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="129"/>
-      <c r="AG9" s="127" t="str">
+      <c r="AE9" s="182"/>
+      <c r="AF9" s="183"/>
+      <c r="AG9" s="181" t="str">
         <f>S22 &amp;" / " &amp; T22</f>
         <v>ㄥ / ㆭ</v>
       </c>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="129"/>
+      <c r="AH9" s="182"/>
+      <c r="AI9" s="183"/>
     </row>
     <row r="13" spans="2:38">
       <c r="B13" s="1" t="s">
@@ -19085,50 +19144,28 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="AB4:AD4"/>
@@ -19145,28 +19182,50 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="S4:U4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
